--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinh.le\git\TitanAPIKatalon\Data Files\Holden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeVinh\git\TITAN_HOLDEN_API\Data Files\Holden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1516,7 +1516,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1532,7 +1532,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,7 +1548,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1693,7 +1693,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1701,14 +1701,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1716,7 +1716,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1724,7 +1724,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1732,7 +1732,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0066"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1740,7 +1740,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1953,6 +1953,9 @@
     <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,9 +1964,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2263,39 +2263,39 @@
       <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="8.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="6.7109375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="8.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="6.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="5.28515625" style="1" customWidth="1"/>
-    <col min="32" max="33" width="8.28515625" style="1" customWidth="1"/>
-    <col min="34" max="38" width="9.140625" style="1"/>
-    <col min="39" max="43" width="8.28515625" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="7.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.375" style="1" customWidth="1"/>
+    <col min="23" max="24" width="6.75" style="1" customWidth="1"/>
+    <col min="25" max="26" width="8.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="7.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="6.375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="5.625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.25" style="1" customWidth="1"/>
+    <col min="32" max="33" width="8.25" style="1" customWidth="1"/>
+    <col min="34" max="38" width="9.125" style="1"/>
+    <col min="39" max="43" width="8.25" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="b">
         <v>1</v>
@@ -2561,8 +2561,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>534</v>
       </c>
       <c r="B3" s="6" t="b">
@@ -2685,8 +2685,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
       <c r="B4" s="6" t="b">
         <v>1</v>
       </c>
@@ -2807,8 +2807,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="b">
         <v>1</v>
       </c>
@@ -2929,8 +2929,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
       <c r="B6" s="6" t="b">
         <v>1</v>
       </c>
@@ -3051,8 +3051,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>538</v>
       </c>
       <c r="B7" s="10" t="b">
@@ -3175,7 +3175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3223,7 +3223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -3271,7 +3271,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3319,7 +3319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -3367,7 +3367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3415,7 +3415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -3463,7 +3463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -3511,7 +3511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -3559,7 +3559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -3607,7 +3607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -3655,7 +3655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -3703,7 +3703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -3751,7 +3751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3799,7 +3799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -3847,7 +3847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3895,7 +3895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -3943,7 +3943,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -3991,7 +3991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -4039,7 +4039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -4087,7 +4087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -4135,7 +4135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -4183,7 +4183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4231,7 +4231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -4279,7 +4279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -4327,7 +4327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -4375,7 +4375,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -4423,7 +4423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -4471,7 +4471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -4519,7 +4519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -4567,7 +4567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -4615,7 +4615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -4663,7 +4663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -4711,7 +4711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -4759,7 +4759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -4807,7 +4807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -4855,7 +4855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -4903,7 +4903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -4951,7 +4951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -4999,7 +4999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -5047,7 +5047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -5095,7 +5095,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -5143,7 +5143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -5191,7 +5191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -5239,7 +5239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -5287,7 +5287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -5335,7 +5335,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -5383,7 +5383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -5431,7 +5431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -5479,7 +5479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -5527,7 +5527,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -5575,7 +5575,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -5623,7 +5623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -5671,7 +5671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -5719,7 +5719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -5767,7 +5767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -5815,7 +5815,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -5863,7 +5863,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -5911,7 +5911,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -5959,7 +5959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -6007,7 +6007,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -6055,7 +6055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -6103,7 +6103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -6151,7 +6151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -6199,7 +6199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -6247,7 +6247,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -6295,7 +6295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -6343,7 +6343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -6391,7 +6391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -6439,7 +6439,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -6487,7 +6487,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -6535,7 +6535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6583,7 +6583,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -6631,7 +6631,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -6679,7 +6679,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -6727,7 +6727,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -6775,7 +6775,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -6823,7 +6823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -6871,7 +6871,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -6919,7 +6919,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -6967,7 +6967,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -7015,7 +7015,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -7063,7 +7063,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -7111,7 +7111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -7159,7 +7159,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -7207,7 +7207,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -7255,7 +7255,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -7303,7 +7303,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -7351,7 +7351,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -7399,7 +7399,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -7447,7 +7447,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -7495,7 +7495,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -7543,7 +7543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -7591,7 +7591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -7639,7 +7639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -7687,7 +7687,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -7735,7 +7735,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -7783,7 +7783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -7831,7 +7831,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -7879,7 +7879,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -7927,7 +7927,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -7975,7 +7975,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -8023,7 +8023,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -8071,7 +8071,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -8119,7 +8119,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -8167,7 +8167,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -8215,7 +8215,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -8263,7 +8263,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -8311,7 +8311,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -8359,7 +8359,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -8407,7 +8407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -8455,7 +8455,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -8503,7 +8503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -8551,7 +8551,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -8599,7 +8599,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -8647,7 +8647,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -8695,7 +8695,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -8743,7 +8743,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -8791,7 +8791,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -8839,7 +8839,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -8887,7 +8887,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -8935,7 +8935,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -8983,7 +8983,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -9031,7 +9031,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -9079,7 +9079,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -9127,7 +9127,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -9175,7 +9175,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -9223,7 +9223,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -9271,7 +9271,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -9319,7 +9319,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -9367,7 +9367,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -9415,7 +9415,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -9463,7 +9463,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -9511,7 +9511,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -9559,7 +9559,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -9607,7 +9607,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -9655,7 +9655,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -9703,7 +9703,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -9751,7 +9751,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -9799,7 +9799,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -9847,7 +9847,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -9895,7 +9895,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -9943,7 +9943,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -9991,7 +9991,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -10039,7 +10039,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -10087,7 +10087,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -10135,7 +10135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -10183,7 +10183,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -10231,7 +10231,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -10279,7 +10279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -10327,7 +10327,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -10375,7 +10375,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -10423,7 +10423,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -10471,7 +10471,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -10519,7 +10519,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -10567,7 +10567,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -10615,7 +10615,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -10663,7 +10663,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -10711,7 +10711,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -10759,7 +10759,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -10807,7 +10807,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -10855,7 +10855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -10903,7 +10903,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -10951,7 +10951,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A170" s="8"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -10999,7 +10999,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A171" s="8"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -11047,7 +11047,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A172" s="8"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -11095,7 +11095,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -11143,7 +11143,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -11191,7 +11191,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A175" s="8"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -11239,7 +11239,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A176" s="8"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -11287,7 +11287,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A177" s="8"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -11335,7 +11335,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -11383,7 +11383,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -11431,7 +11431,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -11479,7 +11479,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A181" s="8"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -11527,7 +11527,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A182" s="8"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -11575,7 +11575,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A183" s="8"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -11623,7 +11623,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -11671,7 +11671,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A185" s="8"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -11719,7 +11719,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A186" s="8"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -11767,7 +11767,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -11815,7 +11815,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -11863,7 +11863,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -11911,7 +11911,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -11959,7 +11959,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A191" s="8"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -12007,7 +12007,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A192" s="8"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -12055,7 +12055,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A193" s="8"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -12103,7 +12103,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A194" s="8"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -12151,7 +12151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A195" s="8"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -12199,7 +12199,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -12247,7 +12247,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -12295,7 +12295,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A198" s="8"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -12343,7 +12343,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -12391,7 +12391,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -12439,7 +12439,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -12487,7 +12487,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -12535,7 +12535,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -12583,7 +12583,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -12631,7 +12631,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -12679,7 +12679,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -12727,7 +12727,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -12775,7 +12775,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -12823,7 +12823,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -12871,7 +12871,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -12919,7 +12919,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A211" s="8"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -12967,7 +12967,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -13015,7 +13015,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A213" s="8"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
@@ -13063,7 +13063,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A214" s="8"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -13111,7 +13111,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -13159,7 +13159,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -13207,7 +13207,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -13255,7 +13255,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A218" s="8"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -13303,7 +13303,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A219" s="8"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -13351,7 +13351,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A220" s="8"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -13399,7 +13399,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -13447,7 +13447,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -13495,7 +13495,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A223" s="8"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -13543,7 +13543,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A224" s="8"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -13591,7 +13591,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A225" s="8"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -13639,7 +13639,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A226" s="8"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -13687,7 +13687,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -13735,7 +13735,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -13783,7 +13783,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -13831,7 +13831,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -13879,7 +13879,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -13927,7 +13927,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -13975,7 +13975,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -14023,7 +14023,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -14071,7 +14071,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -14119,7 +14119,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -14167,7 +14167,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A237" s="8"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -14215,7 +14215,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A238" s="8"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -14263,7 +14263,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A239" s="8"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -14311,7 +14311,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A240" s="8"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -14359,7 +14359,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A241" s="8"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -14407,7 +14407,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A242" s="8"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -14455,7 +14455,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A243" s="8"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -14503,7 +14503,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A244" s="8"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -14551,7 +14551,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A245" s="8"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -14599,7 +14599,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A246" s="8"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -14647,7 +14647,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A247" s="8"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -14695,7 +14695,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A248" s="8"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -14743,7 +14743,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A249" s="8"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -14791,7 +14791,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A250" s="8"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -14839,7 +14839,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A251" s="8"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -14887,7 +14887,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A252" s="8"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -14935,7 +14935,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A253" s="8"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -14983,7 +14983,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A254" s="8"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -15031,7 +15031,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A255" s="8"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -15079,7 +15079,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A256" s="8"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -15127,7 +15127,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A257" s="8"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -15175,7 +15175,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A258" s="8"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -15223,7 +15223,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A259" s="8"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -15271,7 +15271,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A260" s="8"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -15319,7 +15319,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A261" s="8"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -15367,7 +15367,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A262" s="8"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -15415,7 +15415,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A263" s="8"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -15463,7 +15463,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A264" s="8"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -15511,7 +15511,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A265" s="8"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -15559,7 +15559,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A266" s="8"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
@@ -15607,7 +15607,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A267" s="8"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -15655,7 +15655,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -15703,7 +15703,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A269" s="8"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -15751,7 +15751,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A270" s="8"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -15799,7 +15799,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A271" s="8"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -15847,7 +15847,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A272" s="8"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -15895,7 +15895,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A273" s="8"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -15943,7 +15943,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A274" s="8"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -15991,7 +15991,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A275" s="8"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -16039,7 +16039,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A276" s="8"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -16087,7 +16087,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A277" s="8"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -16135,7 +16135,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A278" s="8"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -16183,7 +16183,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A279" s="8"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -16231,7 +16231,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A280" s="8"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -16279,7 +16279,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A281" s="8"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -16327,7 +16327,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="282" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A282" s="8"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -16375,7 +16375,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="283" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A283" s="8"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
@@ -16423,7 +16423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="284" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A284" s="8"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -16471,7 +16471,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="285" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A285" s="8"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -16519,7 +16519,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="286" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A286" s="8"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -16567,7 +16567,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="287" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A287" s="8"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -16615,7 +16615,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="288" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A288" s="8"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
@@ -16663,7 +16663,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A289" s="8"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -16711,7 +16711,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A290" s="8"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -16759,7 +16759,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A291" s="8"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
@@ -16807,7 +16807,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A292" s="8"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -16855,7 +16855,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A293" s="8"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -16903,7 +16903,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A294" s="8"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -16951,7 +16951,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A295" s="8"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -16999,7 +16999,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A296" s="8"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -17047,7 +17047,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A297" s="8"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -17095,7 +17095,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A298" s="8"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -17143,7 +17143,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A299" s="8"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -17191,7 +17191,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A300" s="8"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -17239,7 +17239,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A301" s="8"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -17287,7 +17287,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A302" s="8"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -17335,7 +17335,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A303" s="8"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -17383,7 +17383,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A304" s="8"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -17431,7 +17431,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A305" s="8"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -17479,7 +17479,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A306" s="8"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -17527,7 +17527,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A307" s="8"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -17575,7 +17575,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A308" s="8"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -17623,7 +17623,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A309" s="8"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -17671,7 +17671,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A310" s="8"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -17719,7 +17719,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A311" s="8"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -17767,7 +17767,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A312" s="8"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -17815,7 +17815,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A313" s="8"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -17863,7 +17863,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A314" s="8"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -17911,7 +17911,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A315" s="8"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -17959,7 +17959,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A316" s="8"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -18007,7 +18007,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A317" s="8"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -18055,7 +18055,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A318" s="8"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -18103,7 +18103,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A319" s="8"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -18151,7 +18151,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A320" s="8"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -18199,7 +18199,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="321" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A321" s="8"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -18247,7 +18247,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="322" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A322" s="8"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -18295,7 +18295,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="323" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A323" s="8"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
@@ -18343,7 +18343,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="324" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A324" s="8"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -18391,7 +18391,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="325" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A325" s="8"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -18439,7 +18439,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="326" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A326" s="8"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -18487,7 +18487,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="327" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A327" s="8"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -18535,7 +18535,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="328" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A328" s="8"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -18583,7 +18583,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="329" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A329" s="8"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -18631,7 +18631,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="330" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A330" s="8"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -18679,7 +18679,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="331" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A331" s="8"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -18727,7 +18727,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="332" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A332" s="8"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -18775,7 +18775,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="333" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A333" s="8"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -18823,7 +18823,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="334" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A334" s="8"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -18871,7 +18871,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="335" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A335" s="8"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -18919,7 +18919,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="336" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A336" s="8"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -18967,7 +18967,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="337" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A337" s="8"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -19015,7 +19015,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="338" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A338" s="8"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -19063,7 +19063,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="339" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A339" s="8"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -19111,7 +19111,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="340" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A340" s="8"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -19159,7 +19159,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="341" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A341" s="8"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -19207,7 +19207,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="342" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A342" s="8"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -19255,7 +19255,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="343" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A343" s="8"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -19303,7 +19303,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="344" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A344" s="8"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -19351,7 +19351,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="345" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A345" s="8"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -19399,7 +19399,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="346" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A346" s="8"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
@@ -19447,7 +19447,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="347" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A347" s="8"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -19495,7 +19495,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="348" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A348" s="8"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -19543,7 +19543,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="349" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A349" s="8"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
@@ -19591,7 +19591,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="350" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A350" s="8"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -19639,7 +19639,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="351" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A351" s="8"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -19687,7 +19687,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="352" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A352" s="8"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -19735,7 +19735,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="353" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A353" s="8"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -19783,7 +19783,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="354" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A354" s="8"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -19831,7 +19831,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="355" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A355" s="8"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -19879,7 +19879,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A356" s="8"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -19927,7 +19927,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="357" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A357" s="8"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -19975,7 +19975,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="358" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A358" s="8"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
@@ -20023,7 +20023,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="359" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A359" s="8"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -20071,7 +20071,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="360" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A360" s="8"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -20119,7 +20119,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="361" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A361" s="8"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -20167,7 +20167,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="362" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A362" s="8"/>
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
@@ -20215,7 +20215,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="363" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A363" s="8"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -20263,7 +20263,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="364" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A364" s="8"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -20311,7 +20311,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="365" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A365" s="8"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
@@ -20359,7 +20359,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="366" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A366" s="8"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -20407,7 +20407,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="367" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A367" s="8"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -20455,7 +20455,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="368" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A368" s="8"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -20503,7 +20503,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A369" s="8"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -20551,7 +20551,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="370" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A370" s="8"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -20599,7 +20599,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="371" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A371" s="8"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -20647,7 +20647,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="372" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A372" s="8"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -20695,7 +20695,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="373" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A373" s="8"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
@@ -20743,7 +20743,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="374" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A374" s="8"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -20791,7 +20791,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="375" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A375" s="8"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
@@ -20839,7 +20839,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="376" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A376" s="8"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
@@ -20887,7 +20887,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="377" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A377" s="8"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
@@ -20935,7 +20935,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="378" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A378" s="8"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
@@ -20983,7 +20983,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="379" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A379" s="8"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
@@ -21031,7 +21031,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="380" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A380" s="8"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
@@ -21079,7 +21079,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="381" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A381" s="8"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
@@ -21127,7 +21127,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="382" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A382" s="8"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
@@ -21175,7 +21175,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="383" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A383" s="8"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
@@ -21223,7 +21223,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="384" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A384" s="8"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
@@ -21271,7 +21271,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="385" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A385" s="8"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
@@ -21319,7 +21319,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="386" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A386" s="8"/>
       <c r="B386" s="19"/>
       <c r="C386" s="19"/>
@@ -21367,7 +21367,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="387" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A387" s="8"/>
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
@@ -21415,7 +21415,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="388" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A388" s="8"/>
       <c r="B388" s="19"/>
       <c r="C388" s="19"/>
@@ -21463,7 +21463,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="389" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A389" s="8"/>
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
@@ -21511,7 +21511,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="390" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A390" s="8"/>
       <c r="B390" s="19"/>
       <c r="C390" s="19"/>
@@ -21559,7 +21559,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="391" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A391" s="8"/>
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
@@ -21607,7 +21607,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="392" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A392" s="8"/>
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
@@ -21655,7 +21655,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="393" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A393" s="8"/>
       <c r="B393" s="19"/>
       <c r="C393" s="19"/>
@@ -21703,7 +21703,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="394" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A394" s="8"/>
       <c r="B394" s="19"/>
       <c r="C394" s="19"/>
@@ -21751,7 +21751,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="395" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A395" s="8"/>
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
@@ -21799,7 +21799,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="396" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A396" s="8"/>
       <c r="B396" s="19"/>
       <c r="C396" s="19"/>
@@ -21847,7 +21847,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="397" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A397" s="8"/>
       <c r="B397" s="19"/>
       <c r="C397" s="19"/>
@@ -21895,7 +21895,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="398" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A398" s="8"/>
       <c r="B398" s="19"/>
       <c r="C398" s="19"/>
@@ -21943,7 +21943,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="399" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A399" s="8"/>
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
@@ -21991,7 +21991,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="400" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A400" s="8"/>
       <c r="B400" s="19"/>
       <c r="C400" s="19"/>
@@ -22039,7 +22039,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="401" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A401" s="8"/>
       <c r="B401" s="19"/>
       <c r="C401" s="19"/>
@@ -22087,7 +22087,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="402" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A402" s="8"/>
       <c r="B402" s="19"/>
       <c r="C402" s="19"/>
@@ -22135,7 +22135,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="403" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A403" s="8"/>
       <c r="B403" s="19"/>
       <c r="C403" s="19"/>
@@ -22183,7 +22183,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="404" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A404" s="8"/>
       <c r="B404" s="19"/>
       <c r="C404" s="19"/>
@@ -22231,7 +22231,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="405" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A405" s="8"/>
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
@@ -22279,7 +22279,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="406" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A406" s="8"/>
       <c r="B406" s="19"/>
       <c r="C406" s="19"/>
@@ -22327,7 +22327,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="407" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A407" s="8"/>
       <c r="B407" s="19"/>
       <c r="C407" s="19"/>
@@ -22375,7 +22375,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="408" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A408" s="8"/>
       <c r="B408" s="19"/>
       <c r="C408" s="19"/>
@@ -22423,7 +22423,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="409" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A409" s="8"/>
       <c r="B409" s="19"/>
       <c r="C409" s="19"/>
@@ -22471,7 +22471,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="410" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A410" s="8"/>
       <c r="B410" s="19"/>
       <c r="C410" s="19"/>
@@ -22519,7 +22519,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="411" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A411" s="8"/>
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
@@ -22567,7 +22567,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="412" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A412" s="8"/>
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
@@ -22615,7 +22615,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="413" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A413" s="8"/>
       <c r="B413" s="19"/>
       <c r="C413" s="19"/>
@@ -22663,7 +22663,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="414" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A414" s="8"/>
       <c r="B414" s="19"/>
       <c r="C414" s="19"/>
@@ -22711,7 +22711,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="415" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A415" s="8"/>
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
@@ -22759,7 +22759,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="416" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A416" s="8"/>
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
@@ -22807,7 +22807,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="417" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A417" s="8"/>
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
@@ -22855,7 +22855,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="418" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A418" s="8"/>
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
@@ -22903,7 +22903,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="419" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A419" s="8"/>
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
@@ -22951,7 +22951,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="420" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A420" s="8"/>
       <c r="B420" s="19"/>
       <c r="C420" s="19"/>
@@ -22999,7 +22999,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="421" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A421" s="8"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
@@ -23047,7 +23047,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="422" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A422" s="8"/>
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
@@ -23095,7 +23095,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="423" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A423" s="8"/>
       <c r="B423" s="19"/>
       <c r="C423" s="19"/>
@@ -23143,7 +23143,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="424" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A424" s="8"/>
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
@@ -23191,7 +23191,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="425" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A425" s="8"/>
       <c r="B425" s="19"/>
       <c r="C425" s="19"/>
@@ -23239,7 +23239,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="426" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A426" s="8"/>
       <c r="B426" s="19"/>
       <c r="C426" s="19"/>
@@ -23287,7 +23287,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="427" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A427" s="8"/>
       <c r="B427" s="19"/>
       <c r="C427" s="19"/>
@@ -23335,7 +23335,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="428" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A428" s="8"/>
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
@@ -23383,7 +23383,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="429" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A429" s="8"/>
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
@@ -23431,7 +23431,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="430" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A430" s="8"/>
       <c r="B430" s="19"/>
       <c r="C430" s="19"/>
@@ -23479,7 +23479,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="431" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A431" s="8"/>
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
@@ -23527,7 +23527,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="432" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A432" s="8"/>
       <c r="B432" s="19"/>
       <c r="C432" s="19"/>
@@ -23575,7 +23575,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="433" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A433" s="8"/>
       <c r="B433" s="19"/>
       <c r="C433" s="19"/>
@@ -23623,7 +23623,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="434" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A434" s="8"/>
       <c r="B434" s="19"/>
       <c r="C434" s="19"/>
@@ -23671,7 +23671,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="435" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A435" s="8"/>
       <c r="B435" s="19"/>
       <c r="C435" s="19"/>
@@ -23719,7 +23719,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="436" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A436" s="8"/>
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
@@ -23767,7 +23767,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="437" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A437" s="8"/>
       <c r="B437" s="19"/>
       <c r="C437" s="19"/>
@@ -23815,7 +23815,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="438" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A438" s="8"/>
       <c r="B438" s="19"/>
       <c r="C438" s="19"/>
@@ -23863,7 +23863,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="439" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A439" s="8"/>
       <c r="B439" s="19"/>
       <c r="C439" s="19"/>
@@ -23911,7 +23911,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="440" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A440" s="8"/>
       <c r="B440" s="19"/>
       <c r="C440" s="19"/>
@@ -23959,7 +23959,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="441" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A441" s="8"/>
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
@@ -24007,7 +24007,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="442" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A442" s="8"/>
       <c r="B442" s="19"/>
       <c r="C442" s="19"/>
@@ -24055,7 +24055,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="443" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A443" s="8"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
@@ -24103,7 +24103,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="444" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A444" s="8"/>
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
@@ -24151,7 +24151,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="445" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A445" s="8"/>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
@@ -24199,7 +24199,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="446" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A446" s="8"/>
       <c r="B446" s="19"/>
       <c r="C446" s="19"/>
@@ -24247,7 +24247,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="447" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A447" s="8"/>
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
@@ -24295,7 +24295,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="448" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A448" s="8"/>
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
@@ -24343,7 +24343,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="449" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A449" s="8"/>
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
@@ -24391,7 +24391,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="450" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A450" s="8"/>
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
@@ -24439,7 +24439,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="451" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A451" s="8"/>
       <c r="B451" s="19"/>
       <c r="C451" s="19"/>
@@ -24487,7 +24487,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="452" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A452" s="8"/>
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
@@ -24535,7 +24535,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="453" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A453" s="8"/>
       <c r="B453" s="19"/>
       <c r="C453" s="19"/>
@@ -24583,7 +24583,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="454" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A454" s="8"/>
       <c r="B454" s="19"/>
       <c r="C454" s="19"/>
@@ -24631,7 +24631,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="455" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A455" s="8"/>
       <c r="B455" s="19"/>
       <c r="C455" s="19"/>
@@ -24679,7 +24679,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="456" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A456" s="8"/>
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
@@ -24727,7 +24727,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="457" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A457" s="8"/>
       <c r="B457" s="19"/>
       <c r="C457" s="19"/>
@@ -24775,7 +24775,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="458" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A458" s="8"/>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
@@ -24823,7 +24823,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="459" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A459" s="8"/>
       <c r="B459" s="19"/>
       <c r="C459" s="19"/>
@@ -24871,7 +24871,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="460" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A460" s="8"/>
       <c r="B460" s="19"/>
       <c r="C460" s="19"/>
@@ -24919,7 +24919,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="461" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A461" s="8"/>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
@@ -24967,7 +24967,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="462" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A462" s="8"/>
       <c r="B462" s="19"/>
       <c r="C462" s="19"/>
@@ -25015,7 +25015,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="463" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A463" s="8"/>
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
@@ -25063,7 +25063,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="464" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A464" s="8"/>
       <c r="B464" s="19"/>
       <c r="C464" s="19"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeVinh\git\TITAN_HOLDEN_API\Data Files\Holden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinh.le\git\TITAN_API_HOLDEN\Data Files\Holden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="540">
   <si>
     <t>TITAN</t>
   </si>
@@ -1516,7 +1516,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1532,7 +1532,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,7 +1548,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1683,6 +1683,9 @@
   </si>
   <si>
     <t>DEMO</t>
+  </si>
+  <si>
+    <t>NOT EXIST</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1696,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1701,14 +1704,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1716,7 +1719,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1724,7 +1727,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1732,7 +1735,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0066"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1740,7 +1743,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2260,42 +2263,42 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" style="1" customWidth="1"/>
-    <col min="19" max="20" width="8.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.375" style="1" customWidth="1"/>
-    <col min="23" max="24" width="6.75" style="1" customWidth="1"/>
-    <col min="25" max="26" width="8.25" style="1" customWidth="1"/>
-    <col min="27" max="27" width="6.875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.75" style="1" customWidth="1"/>
-    <col min="29" max="29" width="6.375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5.625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="5.25" style="1" customWidth="1"/>
-    <col min="32" max="33" width="8.25" style="1" customWidth="1"/>
-    <col min="34" max="38" width="9.125" style="1"/>
-    <col min="39" max="43" width="8.25" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.125" style="1"/>
+    <col min="17" max="17" width="7.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="6.7109375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="8.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="1" customWidth="1"/>
+    <col min="32" max="33" width="8.28515625" style="1" customWidth="1"/>
+    <col min="34" max="38" width="9.140625" style="1"/>
+    <col min="39" max="43" width="8.28515625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="b">
         <v>1</v>
@@ -2561,7 +2564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>534</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="b">
         <v>1</v>
@@ -2807,7 +2810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="b">
         <v>1</v>
@@ -2929,7 +2932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="6" t="b">
         <v>1</v>
@@ -3051,7 +3054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>538</v>
       </c>
@@ -3067,20 +3070,20 @@
       <c r="E7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="b">
-        <v>1</v>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="b">
-        <v>1</v>
+      <c r="H7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="K7" s="10" t="b">
         <v>0</v>
@@ -3148,7 +3151,7 @@
         <v>36</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>18</v>
+        <v>539</v>
       </c>
       <c r="AK7" s="11" t="s">
         <v>21</v>
@@ -3175,7 +3178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3223,7 +3226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -3271,7 +3274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3319,7 +3322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -3367,7 +3370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3415,7 +3418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -3463,7 +3466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -3511,7 +3514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -3559,7 +3562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -3607,7 +3610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -3655,7 +3658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -3703,7 +3706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -3751,7 +3754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3799,7 +3802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -3847,7 +3850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3895,7 +3898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -3943,7 +3946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -3991,7 +3994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -4039,7 +4042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -4087,7 +4090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -4135,7 +4138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -4183,7 +4186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4231,7 +4234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -4279,7 +4282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -4327,7 +4330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -4375,7 +4378,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -4423,7 +4426,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -4471,7 +4474,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -4519,7 +4522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -4567,7 +4570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -4615,7 +4618,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -4663,7 +4666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -4711,7 +4714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -4759,7 +4762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -4807,7 +4810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -4855,7 +4858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -4903,7 +4906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -4951,7 +4954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -4999,7 +5002,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -5047,7 +5050,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -5095,7 +5098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -5143,7 +5146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -5191,7 +5194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -5239,7 +5242,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -5287,7 +5290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -5335,7 +5338,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -5383,7 +5386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -5431,7 +5434,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -5479,7 +5482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -5527,7 +5530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -5575,7 +5578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -5623,7 +5626,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -5671,7 +5674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -5719,7 +5722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -5767,7 +5770,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -5815,7 +5818,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -5863,7 +5866,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -5911,7 +5914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -5959,7 +5962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -6007,7 +6010,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -6055,7 +6058,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -6103,7 +6106,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -6151,7 +6154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -6199,7 +6202,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -6247,7 +6250,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -6295,7 +6298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -6343,7 +6346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -6391,7 +6394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -6439,7 +6442,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -6487,7 +6490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -6535,7 +6538,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -6583,7 +6586,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -6631,7 +6634,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -6679,7 +6682,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -6727,7 +6730,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -6775,7 +6778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -6823,7 +6826,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -6871,7 +6874,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -6919,7 +6922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -6967,7 +6970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -7015,7 +7018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -7063,7 +7066,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -7111,7 +7114,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -7159,7 +7162,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -7207,7 +7210,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -7255,7 +7258,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -7303,7 +7306,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -7351,7 +7354,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -7399,7 +7402,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -7447,7 +7450,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -7495,7 +7498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -7543,7 +7546,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -7591,7 +7594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -7639,7 +7642,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -7687,7 +7690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -7735,7 +7738,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -7783,7 +7786,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -7831,7 +7834,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -7879,7 +7882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -7927,7 +7930,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -7975,7 +7978,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -8023,7 +8026,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -8071,7 +8074,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -8119,7 +8122,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -8167,7 +8170,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -8215,7 +8218,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -8263,7 +8266,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -8311,7 +8314,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -8359,7 +8362,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -8407,7 +8410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -8455,7 +8458,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -8503,7 +8506,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -8551,7 +8554,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -8599,7 +8602,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -8647,7 +8650,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -8695,7 +8698,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -8743,7 +8746,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -8791,7 +8794,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -8839,7 +8842,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -8887,7 +8890,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -8935,7 +8938,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -8983,7 +8986,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -9031,7 +9034,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -9079,7 +9082,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -9127,7 +9130,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -9175,7 +9178,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -9223,7 +9226,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -9271,7 +9274,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -9319,7 +9322,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -9367,7 +9370,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -9415,7 +9418,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -9463,7 +9466,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -9511,7 +9514,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -9559,7 +9562,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -9607,7 +9610,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -9655,7 +9658,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -9703,7 +9706,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -9751,7 +9754,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -9799,7 +9802,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -9847,7 +9850,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -9895,7 +9898,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -9943,7 +9946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -9991,7 +9994,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -10039,7 +10042,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -10087,7 +10090,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -10135,7 +10138,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -10183,7 +10186,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -10231,7 +10234,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -10279,7 +10282,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -10327,7 +10330,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -10375,7 +10378,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -10423,7 +10426,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -10471,7 +10474,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -10519,7 +10522,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -10567,7 +10570,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -10615,7 +10618,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -10663,7 +10666,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -10711,7 +10714,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -10759,7 +10762,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -10807,7 +10810,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -10855,7 +10858,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -10903,7 +10906,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -10951,7 +10954,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -10999,7 +11002,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -11047,7 +11050,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -11095,7 +11098,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -11143,7 +11146,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -11191,7 +11194,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -11239,7 +11242,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -11287,7 +11290,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -11335,7 +11338,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -11383,7 +11386,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -11431,7 +11434,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -11479,7 +11482,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -11527,7 +11530,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -11575,7 +11578,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -11623,7 +11626,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -11671,7 +11674,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -11719,7 +11722,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -11767,7 +11770,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -11815,7 +11818,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -11863,7 +11866,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -11911,7 +11914,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -11959,7 +11962,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -12007,7 +12010,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -12055,7 +12058,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -12103,7 +12106,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -12151,7 +12154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -12199,7 +12202,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -12247,7 +12250,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -12295,7 +12298,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -12343,7 +12346,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -12391,7 +12394,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -12439,7 +12442,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -12487,7 +12490,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -12535,7 +12538,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -12583,7 +12586,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -12631,7 +12634,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -12679,7 +12682,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -12727,7 +12730,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -12775,7 +12778,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -12823,7 +12826,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -12871,7 +12874,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -12919,7 +12922,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -12967,7 +12970,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -13015,7 +13018,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
@@ -13063,7 +13066,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -13111,7 +13114,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -13159,7 +13162,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -13207,7 +13210,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -13255,7 +13258,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -13303,7 +13306,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -13351,7 +13354,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -13399,7 +13402,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -13447,7 +13450,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -13495,7 +13498,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -13543,7 +13546,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -13591,7 +13594,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -13639,7 +13642,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -13687,7 +13690,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -13735,7 +13738,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -13783,7 +13786,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -13831,7 +13834,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -13879,7 +13882,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -13927,7 +13930,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -13975,7 +13978,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -14023,7 +14026,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -14071,7 +14074,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -14119,7 +14122,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -14167,7 +14170,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -14215,7 +14218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -14263,7 +14266,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -14311,7 +14314,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -14359,7 +14362,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -14407,7 +14410,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -14455,7 +14458,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -14503,7 +14506,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -14551,7 +14554,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -14599,7 +14602,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -14647,7 +14650,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -14695,7 +14698,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -14743,7 +14746,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -14791,7 +14794,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -14839,7 +14842,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -14887,7 +14890,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -14935,7 +14938,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -14983,7 +14986,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -15031,7 +15034,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -15079,7 +15082,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -15127,7 +15130,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -15175,7 +15178,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -15223,7 +15226,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -15271,7 +15274,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -15319,7 +15322,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -15367,7 +15370,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -15415,7 +15418,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -15463,7 +15466,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -15511,7 +15514,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -15559,7 +15562,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
@@ -15607,7 +15610,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -15655,7 +15658,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -15703,7 +15706,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -15751,7 +15754,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -15799,7 +15802,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -15847,7 +15850,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -15895,7 +15898,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -15943,7 +15946,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -15991,7 +15994,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -16039,7 +16042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -16087,7 +16090,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -16135,7 +16138,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -16183,7 +16186,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -16231,7 +16234,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -16279,7 +16282,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -16327,7 +16330,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="282" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -16375,7 +16378,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="283" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
@@ -16423,7 +16426,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="284" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -16471,7 +16474,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="285" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -16519,7 +16522,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="286" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -16567,7 +16570,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="287" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -16615,7 +16618,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="288" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
@@ -16663,7 +16666,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -16711,7 +16714,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -16759,7 +16762,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
@@ -16807,7 +16810,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -16855,7 +16858,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -16903,7 +16906,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -16951,7 +16954,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -16999,7 +17002,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -17047,7 +17050,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -17095,7 +17098,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -17143,7 +17146,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -17191,7 +17194,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -17239,7 +17242,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -17287,7 +17290,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -17335,7 +17338,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -17383,7 +17386,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A304" s="8"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -17431,7 +17434,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A305" s="8"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -17479,7 +17482,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A306" s="8"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -17527,7 +17530,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A307" s="8"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -17575,7 +17578,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -17623,7 +17626,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -17671,7 +17674,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -17719,7 +17722,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A311" s="8"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -17767,7 +17770,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A312" s="8"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -17815,7 +17818,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A313" s="8"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -17863,7 +17866,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A314" s="8"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -17911,7 +17914,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -17959,7 +17962,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A316" s="8"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -18007,7 +18010,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A317" s="8"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -18055,7 +18058,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -18103,7 +18106,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A319" s="8"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -18151,7 +18154,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A320" s="8"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -18199,7 +18202,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="321" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A321" s="8"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -18247,7 +18250,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="322" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A322" s="8"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -18295,7 +18298,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="323" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A323" s="8"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
@@ -18343,7 +18346,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="324" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A324" s="8"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -18391,7 +18394,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="325" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A325" s="8"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -18439,7 +18442,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="326" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A326" s="8"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -18487,7 +18490,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="327" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A327" s="8"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -18535,7 +18538,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="328" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A328" s="8"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -18583,7 +18586,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="329" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A329" s="8"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -18631,7 +18634,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="330" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A330" s="8"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -18679,7 +18682,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="331" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A331" s="8"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -18727,7 +18730,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="332" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A332" s="8"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -18775,7 +18778,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="333" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A333" s="8"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -18823,7 +18826,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="334" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A334" s="8"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -18871,7 +18874,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="335" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A335" s="8"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -18919,7 +18922,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="336" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A336" s="8"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -18967,7 +18970,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="337" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A337" s="8"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -19015,7 +19018,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="338" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A338" s="8"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -19063,7 +19066,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="339" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A339" s="8"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -19111,7 +19114,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="340" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A340" s="8"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -19159,7 +19162,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="341" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A341" s="8"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -19207,7 +19210,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="342" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A342" s="8"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -19255,7 +19258,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="343" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A343" s="8"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -19303,7 +19306,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="344" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A344" s="8"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -19351,7 +19354,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="345" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A345" s="8"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -19399,7 +19402,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="346" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A346" s="8"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
@@ -19447,7 +19450,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="347" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A347" s="8"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -19495,7 +19498,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="348" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A348" s="8"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -19543,7 +19546,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="349" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A349" s="8"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
@@ -19591,7 +19594,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="350" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A350" s="8"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -19639,7 +19642,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="351" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A351" s="8"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -19687,7 +19690,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="352" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A352" s="8"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -19735,7 +19738,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="353" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A353" s="8"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -19783,7 +19786,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="354" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A354" s="8"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -19831,7 +19834,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="355" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A355" s="8"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -19879,7 +19882,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A356" s="8"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -19927,7 +19930,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="357" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A357" s="8"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -19975,7 +19978,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="358" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A358" s="8"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
@@ -20023,7 +20026,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="359" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A359" s="8"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -20071,7 +20074,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="360" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A360" s="8"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -20119,7 +20122,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="361" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A361" s="8"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -20167,7 +20170,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="362" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A362" s="8"/>
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
@@ -20215,7 +20218,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="363" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A363" s="8"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -20263,7 +20266,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="364" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A364" s="8"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -20311,7 +20314,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="365" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A365" s="8"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
@@ -20359,7 +20362,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="366" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A366" s="8"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -20407,7 +20410,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="367" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A367" s="8"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -20455,7 +20458,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="368" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A368" s="8"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -20503,7 +20506,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="369" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A369" s="8"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -20551,7 +20554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="370" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A370" s="8"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -20599,7 +20602,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="371" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A371" s="8"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -20647,7 +20650,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="372" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A372" s="8"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -20695,7 +20698,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="373" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A373" s="8"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
@@ -20743,7 +20746,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="374" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A374" s="8"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -20791,7 +20794,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="375" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A375" s="8"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
@@ -20839,7 +20842,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="376" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A376" s="8"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
@@ -20887,7 +20890,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="377" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A377" s="8"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
@@ -20935,7 +20938,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="378" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A378" s="8"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
@@ -20983,7 +20986,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="379" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A379" s="8"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
@@ -21031,7 +21034,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="380" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A380" s="8"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
@@ -21079,7 +21082,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="381" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A381" s="8"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
@@ -21127,7 +21130,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="382" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A382" s="8"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
@@ -21175,7 +21178,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="383" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A383" s="8"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
@@ -21223,7 +21226,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="384" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A384" s="8"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
@@ -21271,7 +21274,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="385" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A385" s="8"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
@@ -21319,7 +21322,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="386" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A386" s="8"/>
       <c r="B386" s="19"/>
       <c r="C386" s="19"/>
@@ -21367,7 +21370,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="387" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A387" s="8"/>
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
@@ -21415,7 +21418,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="388" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A388" s="8"/>
       <c r="B388" s="19"/>
       <c r="C388" s="19"/>
@@ -21463,7 +21466,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="389" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A389" s="8"/>
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
@@ -21511,7 +21514,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="390" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A390" s="8"/>
       <c r="B390" s="19"/>
       <c r="C390" s="19"/>
@@ -21559,7 +21562,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="391" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A391" s="8"/>
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
@@ -21607,7 +21610,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="392" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A392" s="8"/>
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
@@ -21655,7 +21658,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="393" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A393" s="8"/>
       <c r="B393" s="19"/>
       <c r="C393" s="19"/>
@@ -21703,7 +21706,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="394" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A394" s="8"/>
       <c r="B394" s="19"/>
       <c r="C394" s="19"/>
@@ -21751,7 +21754,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="395" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A395" s="8"/>
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
@@ -21799,7 +21802,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="396" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A396" s="8"/>
       <c r="B396" s="19"/>
       <c r="C396" s="19"/>
@@ -21847,7 +21850,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="397" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A397" s="8"/>
       <c r="B397" s="19"/>
       <c r="C397" s="19"/>
@@ -21895,7 +21898,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="398" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A398" s="8"/>
       <c r="B398" s="19"/>
       <c r="C398" s="19"/>
@@ -21943,7 +21946,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="399" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A399" s="8"/>
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
@@ -21991,7 +21994,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="400" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A400" s="8"/>
       <c r="B400" s="19"/>
       <c r="C400" s="19"/>
@@ -22039,7 +22042,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="401" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A401" s="8"/>
       <c r="B401" s="19"/>
       <c r="C401" s="19"/>
@@ -22087,7 +22090,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="402" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A402" s="8"/>
       <c r="B402" s="19"/>
       <c r="C402" s="19"/>
@@ -22135,7 +22138,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="403" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A403" s="8"/>
       <c r="B403" s="19"/>
       <c r="C403" s="19"/>
@@ -22183,7 +22186,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="404" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A404" s="8"/>
       <c r="B404" s="19"/>
       <c r="C404" s="19"/>
@@ -22231,7 +22234,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="405" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A405" s="8"/>
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
@@ -22279,7 +22282,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="406" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A406" s="8"/>
       <c r="B406" s="19"/>
       <c r="C406" s="19"/>
@@ -22327,7 +22330,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="407" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A407" s="8"/>
       <c r="B407" s="19"/>
       <c r="C407" s="19"/>
@@ -22375,7 +22378,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="408" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A408" s="8"/>
       <c r="B408" s="19"/>
       <c r="C408" s="19"/>
@@ -22423,7 +22426,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="409" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A409" s="8"/>
       <c r="B409" s="19"/>
       <c r="C409" s="19"/>
@@ -22471,7 +22474,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="410" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A410" s="8"/>
       <c r="B410" s="19"/>
       <c r="C410" s="19"/>
@@ -22519,7 +22522,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="411" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A411" s="8"/>
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
@@ -22567,7 +22570,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="412" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A412" s="8"/>
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
@@ -22615,7 +22618,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="413" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A413" s="8"/>
       <c r="B413" s="19"/>
       <c r="C413" s="19"/>
@@ -22663,7 +22666,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="414" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A414" s="8"/>
       <c r="B414" s="19"/>
       <c r="C414" s="19"/>
@@ -22711,7 +22714,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="415" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A415" s="8"/>
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
@@ -22759,7 +22762,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="416" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
@@ -22807,7 +22810,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="417" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A417" s="8"/>
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
@@ -22855,7 +22858,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="418" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A418" s="8"/>
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
@@ -22903,7 +22906,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="419" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A419" s="8"/>
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
@@ -22951,7 +22954,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="420" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A420" s="8"/>
       <c r="B420" s="19"/>
       <c r="C420" s="19"/>
@@ -22999,7 +23002,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="421" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A421" s="8"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
@@ -23047,7 +23050,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="422" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A422" s="8"/>
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
@@ -23095,7 +23098,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="423" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A423" s="8"/>
       <c r="B423" s="19"/>
       <c r="C423" s="19"/>
@@ -23143,7 +23146,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="424" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A424" s="8"/>
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
@@ -23191,7 +23194,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="425" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A425" s="8"/>
       <c r="B425" s="19"/>
       <c r="C425" s="19"/>
@@ -23239,7 +23242,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="426" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A426" s="8"/>
       <c r="B426" s="19"/>
       <c r="C426" s="19"/>
@@ -23287,7 +23290,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="427" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A427" s="8"/>
       <c r="B427" s="19"/>
       <c r="C427" s="19"/>
@@ -23335,7 +23338,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="428" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A428" s="8"/>
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
@@ -23383,7 +23386,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="429" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A429" s="8"/>
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
@@ -23431,7 +23434,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="430" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A430" s="8"/>
       <c r="B430" s="19"/>
       <c r="C430" s="19"/>
@@ -23479,7 +23482,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="431" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
@@ -23527,7 +23530,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="432" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A432" s="8"/>
       <c r="B432" s="19"/>
       <c r="C432" s="19"/>
@@ -23575,7 +23578,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="433" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A433" s="8"/>
       <c r="B433" s="19"/>
       <c r="C433" s="19"/>
@@ -23623,7 +23626,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="434" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A434" s="8"/>
       <c r="B434" s="19"/>
       <c r="C434" s="19"/>
@@ -23671,7 +23674,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="435" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A435" s="8"/>
       <c r="B435" s="19"/>
       <c r="C435" s="19"/>
@@ -23719,7 +23722,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="436" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A436" s="8"/>
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
@@ -23767,7 +23770,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="437" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A437" s="8"/>
       <c r="B437" s="19"/>
       <c r="C437" s="19"/>
@@ -23815,7 +23818,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="438" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A438" s="8"/>
       <c r="B438" s="19"/>
       <c r="C438" s="19"/>
@@ -23863,7 +23866,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="439" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A439" s="8"/>
       <c r="B439" s="19"/>
       <c r="C439" s="19"/>
@@ -23911,7 +23914,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="440" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A440" s="8"/>
       <c r="B440" s="19"/>
       <c r="C440" s="19"/>
@@ -23959,7 +23962,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="441" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A441" s="8"/>
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
@@ -24007,7 +24010,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="442" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A442" s="8"/>
       <c r="B442" s="19"/>
       <c r="C442" s="19"/>
@@ -24055,7 +24058,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="443" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A443" s="8"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
@@ -24103,7 +24106,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="444" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A444" s="8"/>
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
@@ -24151,7 +24154,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="445" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A445" s="8"/>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
@@ -24199,7 +24202,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="446" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A446" s="8"/>
       <c r="B446" s="19"/>
       <c r="C446" s="19"/>
@@ -24247,7 +24250,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="447" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A447" s="8"/>
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
@@ -24295,7 +24298,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="448" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A448" s="8"/>
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
@@ -24343,7 +24346,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="449" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A449" s="8"/>
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
@@ -24391,7 +24394,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="450" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A450" s="8"/>
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
@@ -24439,7 +24442,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="451" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A451" s="8"/>
       <c r="B451" s="19"/>
       <c r="C451" s="19"/>
@@ -24487,7 +24490,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="452" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A452" s="8"/>
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
@@ -24535,7 +24538,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="453" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A453" s="8"/>
       <c r="B453" s="19"/>
       <c r="C453" s="19"/>
@@ -24583,7 +24586,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="454" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A454" s="8"/>
       <c r="B454" s="19"/>
       <c r="C454" s="19"/>
@@ -24631,7 +24634,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="455" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A455" s="8"/>
       <c r="B455" s="19"/>
       <c r="C455" s="19"/>
@@ -24679,7 +24682,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="456" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A456" s="8"/>
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
@@ -24727,7 +24730,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="457" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A457" s="8"/>
       <c r="B457" s="19"/>
       <c r="C457" s="19"/>
@@ -24775,7 +24778,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="458" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A458" s="8"/>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
@@ -24823,7 +24826,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="459" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A459" s="8"/>
       <c r="B459" s="19"/>
       <c r="C459" s="19"/>
@@ -24871,7 +24874,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="460" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A460" s="8"/>
       <c r="B460" s="19"/>
       <c r="C460" s="19"/>
@@ -24919,7 +24922,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="461" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A461" s="8"/>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
@@ -24967,7 +24970,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="462" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A462" s="8"/>
       <c r="B462" s="19"/>
       <c r="C462" s="19"/>
@@ -25015,7 +25018,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="463" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A463" s="8"/>
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
@@ -25063,7 +25066,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="464" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A464" s="8"/>
       <c r="B464" s="19"/>
       <c r="C464" s="19"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="541">
   <si>
     <t>TITAN</t>
   </si>
@@ -1686,6 +1686,9 @@
   </si>
   <si>
     <t>NOT EXIST</t>
+  </si>
+  <si>
+    <t>464</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,9 +1959,6 @@
     <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1966,6 +1966,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2257,13 +2263,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AR464"/>
+  <dimension ref="A1:AR465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2571,7 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>534</v>
       </c>
       <c r="B3" s="6" t="b">
@@ -2689,7 +2695,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="b">
         <v>1</v>
       </c>
@@ -2811,7 +2817,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="b">
         <v>1</v>
       </c>
@@ -2933,7 +2939,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6" t="b">
         <v>1</v>
       </c>
@@ -3055,7 +3061,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>538</v>
       </c>
       <c r="B7" s="10" t="b">
@@ -3070,8 +3076,8 @@
       <c r="E7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="b">
-        <v>0</v>
+      <c r="F7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>0</v>
@@ -3178,50 +3184,134 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
+    <row r="8" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD8" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="AR8" s="22" t="s">
         <v>41</v>
       </c>
@@ -25114,10 +25204,59 @@
         <v>531</v>
       </c>
     </row>
+    <row r="465" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A465" s="8"/>
+      <c r="B465" s="19"/>
+      <c r="C465" s="19"/>
+      <c r="D465" s="19"/>
+      <c r="E465" s="19"/>
+      <c r="F465" s="19"/>
+      <c r="G465" s="19"/>
+      <c r="H465" s="19"/>
+      <c r="I465" s="19"/>
+      <c r="J465" s="19"/>
+      <c r="K465" s="19"/>
+      <c r="L465" s="19"/>
+      <c r="M465" s="19"/>
+      <c r="N465" s="19"/>
+      <c r="O465" s="19"/>
+      <c r="P465" s="19"/>
+      <c r="Q465" s="19"/>
+      <c r="R465" s="19"/>
+      <c r="S465" s="19"/>
+      <c r="T465" s="19"/>
+      <c r="U465" s="19"/>
+      <c r="V465" s="19"/>
+      <c r="W465" s="19"/>
+      <c r="X465" s="19"/>
+      <c r="Y465" s="19"/>
+      <c r="Z465" s="19"/>
+      <c r="AA465" s="19"/>
+      <c r="AB465" s="19"/>
+      <c r="AC465" s="19"/>
+      <c r="AD465" s="19"/>
+      <c r="AE465" s="19"/>
+      <c r="AF465" s="19"/>
+      <c r="AG465" s="19"/>
+      <c r="AH465" s="19"/>
+      <c r="AI465" s="19"/>
+      <c r="AJ465" s="19"/>
+      <c r="AK465" s="19"/>
+      <c r="AL465" s="19"/>
+      <c r="AM465" s="19"/>
+      <c r="AN465" s="19"/>
+      <c r="AO465" s="19"/>
+      <c r="AP465" s="19"/>
+      <c r="AQ465" s="19"/>
+      <c r="AR465" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA3" r:id="rId1"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -2269,7 +2269,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F7:F8"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,20 +3064,20 @@
       <c r="A7" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="10" t="b">
+      <c r="B7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="b">
         <v>0</v>
-      </c>
-      <c r="C7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="b">
-        <v>1</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>0</v>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinh.le\git\TITAN_API_HOLDEN\Data Files\Holden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinh.le\git\TITAN_HOLDEN_API_BK\Data Files\Holden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="540">
   <si>
     <t>TITAN</t>
   </si>
@@ -1683,9 +1683,6 @@
   </si>
   <si>
     <t>DEMO</t>
-  </si>
-  <si>
-    <t>NOT EXIST</t>
   </si>
   <si>
     <t>464</t>
@@ -2269,7 +2266,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ7:AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,20 +3061,20 @@
       <c r="A7" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="6" t="b">
+      <c r="B7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="b">
         <v>1</v>
-      </c>
-      <c r="C7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="b">
-        <v>0</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>0</v>
@@ -3157,7 +3154,7 @@
         <v>36</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>539</v>
+        <v>18</v>
       </c>
       <c r="AK7" s="11" t="s">
         <v>21</v>
@@ -25249,7 +25246,7 @@
       <c r="AP465" s="19"/>
       <c r="AQ465" s="19"/>
       <c r="AR465" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -2266,7 +2266,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AJ8" sqref="AJ7:AJ8"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,17 +3061,17 @@
       <c r="A7" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="b">
-        <v>0</v>
+      <c r="B7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F7" s="6" t="b">
         <v>1</v>
@@ -3183,17 +3183,17 @@
     </row>
     <row r="8" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="b">
-        <v>0</v>
+      <c r="B8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F8" s="6" t="b">
         <v>1</v>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -2266,7 +2266,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="B7:F8"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,20 +3183,20 @@
     </row>
     <row r="8" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="b">
-        <v>1</v>
+      <c r="B8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="G8" s="10" t="b">
         <v>0</v>
@@ -3210,8 +3210,8 @@
       <c r="J8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="10" t="b">
-        <v>0</v>
+      <c r="K8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="L8" s="10" t="b">
         <v>0</v>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -2266,7 +2266,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,17 +3061,17 @@
       <c r="A7" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="b">
-        <v>1</v>
+      <c r="B7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="F7" s="6" t="b">
         <v>1</v>
@@ -3079,8 +3079,8 @@
       <c r="G7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="b">
-        <v>0</v>
+      <c r="H7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="I7" s="10" t="b">
         <v>0</v>
@@ -3195,14 +3195,14 @@
       <c r="E8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="10" t="b">
-        <v>0</v>
+      <c r="F8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="G8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="10" t="b">
-        <v>0</v>
+      <c r="H8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="I8" s="10" t="b">
         <v>0</v>
@@ -3210,8 +3210,8 @@
       <c r="J8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="b">
-        <v>1</v>
+      <c r="K8" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="L8" s="10" t="b">
         <v>0</v>
@@ -3315,17 +3315,39 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="B9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -2266,7 +2266,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="548">
   <si>
     <t>TITAN</t>
   </si>
@@ -1686,6 +1686,30 @@
   </si>
   <si>
     <t>464</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>INVALID - GENERIC - Carry out 75,000km intermediate service</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,10 +1990,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2266,7 +2287,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,7 +2957,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="b">
         <v>1</v>
       </c>
@@ -3058,20 +3079,18 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="B7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="b">
-        <v>0</v>
+      <c r="A7" s="27"/>
+      <c r="B7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F7" s="6" t="b">
         <v>1</v>
@@ -3082,14 +3101,14 @@
       <c r="H7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10" t="b">
-        <v>0</v>
+      <c r="I7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="L7" s="10" t="b">
         <v>0</v>
@@ -3182,18 +3201,18 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="b">
-        <v>0</v>
+      <c r="A8" s="28"/>
+      <c r="B8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F8" s="6" t="b">
         <v>1</v>
@@ -3204,14 +3223,14 @@
       <c r="H8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10" t="b">
-        <v>0</v>
+      <c r="I8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="L8" s="10" t="b">
         <v>0</v>
@@ -3314,7 +3333,9 @@
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="29" t="s">
+        <v>538</v>
+      </c>
       <c r="B9" s="6" t="b">
         <v>1</v>
       </c>
@@ -3327,20 +3348,20 @@
       <c r="E9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="10" t="b">
-        <v>0</v>
+      <c r="F9" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="G9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="b">
-        <v>0</v>
+      <c r="H9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="K9" s="6" t="b">
         <v>1</v>
@@ -3348,37 +3369,99 @@
       <c r="L9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
+      <c r="M9" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="AI9" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="AR9" s="22" t="s">
         <v>42</v>
       </c>
@@ -3422,10 +3505,18 @@
       <c r="AJ10" s="19"/>
       <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
+      <c r="AM10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN10" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="AO10" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="AP10" s="19" t="s">
+        <v>546</v>
+      </c>
       <c r="AQ10" s="19"/>
       <c r="AR10" s="22" t="s">
         <v>43</v>
@@ -3470,10 +3561,18 @@
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
+      <c r="AM11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN11" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="AO11" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="AP11" s="19" t="s">
+        <v>547</v>
+      </c>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="22" t="s">
         <v>44</v>
@@ -3518,9 +3617,15 @@
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
+      <c r="AM12" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="AN12" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="AO12" s="19" t="s">
+        <v>544</v>
+      </c>
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
       <c r="AR12" s="22" t="s">
@@ -3567,8 +3672,12 @@
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
+      <c r="AN13" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO13" s="19" t="s">
+        <v>545</v>
+      </c>
       <c r="AP13" s="19"/>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="22" t="s">
@@ -3912,7 +4021,9 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="29" t="s">
+        <v>538</v>
+      </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -3960,7 +4071,7 @@
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -25273,9 +25384,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA3" r:id="rId1"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -2287,7 +2287,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AL16" sqref="AL16"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="G9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,8 +3351,8 @@
       <c r="F9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="b">
-        <v>0</v>
+      <c r="G9" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="b">
         <v>1</v>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinh.le\git\TITAN_HOLDEN_API_BK\Data Files\Holden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinh.le\git\TITAN_HOLDEN_API\Data Files\Holden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="548">
   <si>
     <t>TITAN</t>
   </si>
@@ -1980,6 +1980,9 @@
     <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1988,9 +1991,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2287,7 +2287,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="G9:H9"/>
+      <selection pane="bottomRight" activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,7 +2589,7 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>534</v>
       </c>
       <c r="B3" s="6" t="b">
@@ -2713,7 +2713,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="6" t="b">
         <v>1</v>
       </c>
@@ -2835,7 +2835,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="b">
         <v>1</v>
       </c>
@@ -2957,7 +2957,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6" t="b">
         <v>1</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="6" t="b">
         <v>1</v>
       </c>
@@ -3201,7 +3201,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="6" t="b">
         <v>1</v>
       </c>
@@ -3333,7 +3333,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>538</v>
       </c>
       <c r="B9" s="6" t="b">
@@ -3447,8 +3447,8 @@
       <c r="AL9" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="AM9" s="10" t="b">
-        <v>0</v>
+      <c r="AM9" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="AN9" s="10" t="b">
         <v>0</v>
@@ -4021,7 +4021,7 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="26" t="s">
         <v>538</v>
       </c>
       <c r="B21" s="19"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="545">
   <si>
     <t>TITAN</t>
   </si>
   <si>
-    <t>DMS</t>
-  </si>
-  <si>
     <t>STEP</t>
   </si>
   <si>
@@ -98,28 +95,10 @@
     <t>678568</t>
   </si>
   <si>
-    <t>Anh Thy</t>
-  </si>
-  <si>
-    <t>TCA</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>QLD</t>
-  </si>
-  <si>
     <t>WORKPHONE</t>
-  </si>
-  <si>
-    <t>0919011995</t>
-  </si>
-  <si>
-    <t>qateam@automation.com.au</t>
   </si>
   <si>
     <t>19</t>
@@ -1710,6 +1689,18 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>AUTOMATION</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OO</t>
   </si>
 </sst>
 </file>
@@ -2287,7 +2278,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AM10" sqref="AM10"/>
+      <selection pane="bottomRight" activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,136 +2315,136 @@
   <sheetData>
     <row r="1" spans="1:44" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AR1" s="18" t="s">
         <v>511</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR1" s="18" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2492,82 +2483,82 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>1</v>
+        <v>541</v>
       </c>
       <c r="S2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="V2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="W2" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="AH2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AI2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="AJ2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM2" s="10" t="b">
         <v>0</v>
@@ -2581,16 +2572,14 @@
       <c r="AP2" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AQ2" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AQ2" s="10"/>
       <c r="AR2" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B3" s="6" t="b">
         <v>1</v>
@@ -2626,72 +2615,72 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="V3" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
       <c r="AH3" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AI3" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AJ3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="AM3" s="10" t="b">
         <v>0</v>
@@ -2705,11 +2694,9 @@
       <c r="AP3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AQ3" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AQ3" s="10"/>
       <c r="AR3" s="22" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -2748,72 +2735,72 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Y4" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AC4" s="20" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
       <c r="AH4" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AI4" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AM4" s="10" t="b">
         <v>0</v>
@@ -2827,11 +2814,9 @@
       <c r="AP4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AQ4" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AQ4" s="10"/>
       <c r="AR4" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -2870,72 +2855,72 @@
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="V5" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Y5" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AA5" s="25" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AC5" s="20" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AI5" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM5" s="10" t="b">
         <v>0</v>
@@ -2949,11 +2934,9 @@
       <c r="AP5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AQ5" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AQ5" s="10"/>
       <c r="AR5" s="22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -2992,72 +2975,72 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Y6" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AA6" s="25" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AC6" s="20" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AD6" s="20" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AF6" s="20"/>
       <c r="AG6" s="20"/>
       <c r="AH6" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AI6" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AM6" s="10" t="b">
         <v>0</v>
@@ -3071,11 +3054,9 @@
       <c r="AP6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AQ6" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AQ6" s="10"/>
       <c r="AR6" s="22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -3114,72 +3095,72 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="V7" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="Y7" s="20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AA7" s="25" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AC7" s="20" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AD7" s="20" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>
       <c r="AH7" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AI7" s="21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM7" s="10" t="b">
         <v>0</v>
@@ -3193,11 +3174,9 @@
       <c r="AP7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AQ7" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AQ7" s="10"/>
       <c r="AR7" s="22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -3236,82 +3215,72 @@
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="U8" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="V8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="W8" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="X8" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Z8" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA8" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC8" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD8" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="AI8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC8" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD8" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE8" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI8" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="AJ8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM8" s="10" t="b">
         <v>0</v>
@@ -3325,16 +3294,14 @@
       <c r="AP8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AQ8" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AQ8" s="10"/>
       <c r="AR8" s="22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B9" s="6" t="b">
         <v>1</v>
@@ -3357,11 +3324,11 @@
       <c r="H9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6" t="b">
-        <v>1</v>
+      <c r="I9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="K9" s="6" t="b">
         <v>1</v>
@@ -3370,85 +3337,75 @@
         <v>0</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>21</v>
+        <v>522</v>
       </c>
       <c r="O9" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="X9" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA9" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC9" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="20" t="s">
+      <c r="AD9" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI9" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM9" s="10" t="b">
         <v>0</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC9" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD9" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="AE9" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH9" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="AI9" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="AJ9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="AM9" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="AN9" s="10" t="b">
         <v>0</v>
@@ -3456,14 +3413,12 @@
       <c r="AO9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="AP9" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ9" s="10"/>
       <c r="AR9" s="22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -3506,20 +3461,20 @@
       <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AO10" s="19" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AP10" s="19" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="AQ10" s="19"/>
       <c r="AR10" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -3562,20 +3517,20 @@
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN11" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AO11" s="19" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AP11" s="19" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -3618,18 +3573,18 @@
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AN12" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AO12" s="19" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
       <c r="AR12" s="22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -3673,15 +3628,15 @@
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
       <c r="AN13" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AO13" s="19" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="AP13" s="19"/>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -3729,7 +3684,7 @@
       <c r="AP14" s="19"/>
       <c r="AQ14" s="19"/>
       <c r="AR14" s="22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -3777,7 +3732,7 @@
       <c r="AP15" s="19"/>
       <c r="AQ15" s="19"/>
       <c r="AR15" s="22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -3825,7 +3780,7 @@
       <c r="AP16" s="19"/>
       <c r="AQ16" s="19"/>
       <c r="AR16" s="22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -3873,7 +3828,7 @@
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="22" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -3921,7 +3876,7 @@
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -3969,7 +3924,7 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -4017,12 +3972,12 @@
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -4067,7 +4022,7 @@
       <c r="AP21" s="19"/>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -4115,7 +4070,7 @@
       <c r="AP22" s="19"/>
       <c r="AQ22" s="19"/>
       <c r="AR22" s="22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
@@ -4163,7 +4118,7 @@
       <c r="AP23" s="19"/>
       <c r="AQ23" s="19"/>
       <c r="AR23" s="22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
@@ -4211,7 +4166,7 @@
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
@@ -4259,7 +4214,7 @@
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -4307,7 +4262,7 @@
       <c r="AP26" s="19"/>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
@@ -4355,7 +4310,7 @@
       <c r="AP27" s="19"/>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
@@ -4403,7 +4358,7 @@
       <c r="AP28" s="19"/>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
@@ -4451,7 +4406,7 @@
       <c r="AP29" s="19"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
@@ -4499,7 +4454,7 @@
       <c r="AP30" s="19"/>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
@@ -4547,7 +4502,7 @@
       <c r="AP31" s="19"/>
       <c r="AQ31" s="19"/>
       <c r="AR31" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
@@ -4595,7 +4550,7 @@
       <c r="AP32" s="19"/>
       <c r="AQ32" s="19"/>
       <c r="AR32" s="22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
@@ -4643,7 +4598,7 @@
       <c r="AP33" s="19"/>
       <c r="AQ33" s="19"/>
       <c r="AR33" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -4691,7 +4646,7 @@
       <c r="AP34" s="19"/>
       <c r="AQ34" s="19"/>
       <c r="AR34" s="22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -4739,7 +4694,7 @@
       <c r="AP35" s="19"/>
       <c r="AQ35" s="19"/>
       <c r="AR35" s="22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
@@ -4787,7 +4742,7 @@
       <c r="AP36" s="19"/>
       <c r="AQ36" s="19"/>
       <c r="AR36" s="22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
@@ -4835,7 +4790,7 @@
       <c r="AP37" s="19"/>
       <c r="AQ37" s="19"/>
       <c r="AR37" s="22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
@@ -4883,7 +4838,7 @@
       <c r="AP38" s="19"/>
       <c r="AQ38" s="19"/>
       <c r="AR38" s="22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
@@ -4931,7 +4886,7 @@
       <c r="AP39" s="19"/>
       <c r="AQ39" s="19"/>
       <c r="AR39" s="22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
@@ -4979,7 +4934,7 @@
       <c r="AP40" s="19"/>
       <c r="AQ40" s="19"/>
       <c r="AR40" s="22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
@@ -5027,7 +4982,7 @@
       <c r="AP41" s="19"/>
       <c r="AQ41" s="19"/>
       <c r="AR41" s="22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
@@ -5075,7 +5030,7 @@
       <c r="AP42" s="19"/>
       <c r="AQ42" s="19"/>
       <c r="AR42" s="22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
@@ -5123,7 +5078,7 @@
       <c r="AP43" s="19"/>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
@@ -5171,7 +5126,7 @@
       <c r="AP44" s="19"/>
       <c r="AQ44" s="19"/>
       <c r="AR44" s="22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
@@ -5219,7 +5174,7 @@
       <c r="AP45" s="19"/>
       <c r="AQ45" s="19"/>
       <c r="AR45" s="22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
@@ -5267,7 +5222,7 @@
       <c r="AP46" s="19"/>
       <c r="AQ46" s="19"/>
       <c r="AR46" s="22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
@@ -5315,7 +5270,7 @@
       <c r="AP47" s="19"/>
       <c r="AQ47" s="19"/>
       <c r="AR47" s="22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
@@ -5363,7 +5318,7 @@
       <c r="AP48" s="19"/>
       <c r="AQ48" s="19"/>
       <c r="AR48" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
@@ -5411,7 +5366,7 @@
       <c r="AP49" s="19"/>
       <c r="AQ49" s="19"/>
       <c r="AR49" s="22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
@@ -5459,7 +5414,7 @@
       <c r="AP50" s="19"/>
       <c r="AQ50" s="19"/>
       <c r="AR50" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
@@ -5507,7 +5462,7 @@
       <c r="AP51" s="19"/>
       <c r="AQ51" s="19"/>
       <c r="AR51" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
@@ -5555,7 +5510,7 @@
       <c r="AP52" s="19"/>
       <c r="AQ52" s="19"/>
       <c r="AR52" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
@@ -5603,7 +5558,7 @@
       <c r="AP53" s="19"/>
       <c r="AQ53" s="19"/>
       <c r="AR53" s="22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
@@ -5651,7 +5606,7 @@
       <c r="AP54" s="19"/>
       <c r="AQ54" s="19"/>
       <c r="AR54" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
@@ -5699,7 +5654,7 @@
       <c r="AP55" s="19"/>
       <c r="AQ55" s="19"/>
       <c r="AR55" s="22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
@@ -5747,7 +5702,7 @@
       <c r="AP56" s="19"/>
       <c r="AQ56" s="19"/>
       <c r="AR56" s="22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
@@ -5795,7 +5750,7 @@
       <c r="AP57" s="19"/>
       <c r="AQ57" s="19"/>
       <c r="AR57" s="22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
@@ -5843,7 +5798,7 @@
       <c r="AP58" s="19"/>
       <c r="AQ58" s="19"/>
       <c r="AR58" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
@@ -5891,7 +5846,7 @@
       <c r="AP59" s="19"/>
       <c r="AQ59" s="19"/>
       <c r="AR59" s="22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
@@ -5939,7 +5894,7 @@
       <c r="AP60" s="19"/>
       <c r="AQ60" s="19"/>
       <c r="AR60" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
@@ -5987,7 +5942,7 @@
       <c r="AP61" s="19"/>
       <c r="AQ61" s="19"/>
       <c r="AR61" s="22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
@@ -6035,7 +5990,7 @@
       <c r="AP62" s="19"/>
       <c r="AQ62" s="19"/>
       <c r="AR62" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
@@ -6083,7 +6038,7 @@
       <c r="AP63" s="19"/>
       <c r="AQ63" s="19"/>
       <c r="AR63" s="22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
@@ -6131,7 +6086,7 @@
       <c r="AP64" s="19"/>
       <c r="AQ64" s="19"/>
       <c r="AR64" s="22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
@@ -6179,7 +6134,7 @@
       <c r="AP65" s="19"/>
       <c r="AQ65" s="19"/>
       <c r="AR65" s="22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
@@ -6227,7 +6182,7 @@
       <c r="AP66" s="19"/>
       <c r="AQ66" s="19"/>
       <c r="AR66" s="22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
@@ -6275,7 +6230,7 @@
       <c r="AP67" s="19"/>
       <c r="AQ67" s="19"/>
       <c r="AR67" s="22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
@@ -6323,7 +6278,7 @@
       <c r="AP68" s="19"/>
       <c r="AQ68" s="19"/>
       <c r="AR68" s="22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
@@ -6371,7 +6326,7 @@
       <c r="AP69" s="19"/>
       <c r="AQ69" s="19"/>
       <c r="AR69" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
@@ -6419,7 +6374,7 @@
       <c r="AP70" s="19"/>
       <c r="AQ70" s="19"/>
       <c r="AR70" s="22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
@@ -6467,7 +6422,7 @@
       <c r="AP71" s="19"/>
       <c r="AQ71" s="19"/>
       <c r="AR71" s="22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
@@ -6515,7 +6470,7 @@
       <c r="AP72" s="19"/>
       <c r="AQ72" s="19"/>
       <c r="AR72" s="22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
@@ -6563,7 +6518,7 @@
       <c r="AP73" s="19"/>
       <c r="AQ73" s="19"/>
       <c r="AR73" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
@@ -6611,7 +6566,7 @@
       <c r="AP74" s="19"/>
       <c r="AQ74" s="19"/>
       <c r="AR74" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.25">
@@ -6659,7 +6614,7 @@
       <c r="AP75" s="19"/>
       <c r="AQ75" s="19"/>
       <c r="AR75" s="22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.25">
@@ -6707,7 +6662,7 @@
       <c r="AP76" s="19"/>
       <c r="AQ76" s="19"/>
       <c r="AR76" s="22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
@@ -6755,7 +6710,7 @@
       <c r="AP77" s="19"/>
       <c r="AQ77" s="19"/>
       <c r="AR77" s="22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.25">
@@ -6803,7 +6758,7 @@
       <c r="AP78" s="19"/>
       <c r="AQ78" s="19"/>
       <c r="AR78" s="22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.25">
@@ -6851,7 +6806,7 @@
       <c r="AP79" s="19"/>
       <c r="AQ79" s="19"/>
       <c r="AR79" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.25">
@@ -6899,7 +6854,7 @@
       <c r="AP80" s="19"/>
       <c r="AQ80" s="19"/>
       <c r="AR80" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
@@ -6947,7 +6902,7 @@
       <c r="AP81" s="19"/>
       <c r="AQ81" s="19"/>
       <c r="AR81" s="22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
@@ -6995,7 +6950,7 @@
       <c r="AP82" s="19"/>
       <c r="AQ82" s="19"/>
       <c r="AR82" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
@@ -7043,7 +6998,7 @@
       <c r="AP83" s="19"/>
       <c r="AQ83" s="19"/>
       <c r="AR83" s="22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
@@ -7091,7 +7046,7 @@
       <c r="AP84" s="19"/>
       <c r="AQ84" s="19"/>
       <c r="AR84" s="22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
@@ -7139,7 +7094,7 @@
       <c r="AP85" s="19"/>
       <c r="AQ85" s="19"/>
       <c r="AR85" s="22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
@@ -7187,7 +7142,7 @@
       <c r="AP86" s="19"/>
       <c r="AQ86" s="19"/>
       <c r="AR86" s="22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
@@ -7235,7 +7190,7 @@
       <c r="AP87" s="19"/>
       <c r="AQ87" s="19"/>
       <c r="AR87" s="22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
@@ -7283,7 +7238,7 @@
       <c r="AP88" s="19"/>
       <c r="AQ88" s="19"/>
       <c r="AR88" s="22" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
@@ -7331,7 +7286,7 @@
       <c r="AP89" s="19"/>
       <c r="AQ89" s="19"/>
       <c r="AR89" s="22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.25">
@@ -7379,7 +7334,7 @@
       <c r="AP90" s="19"/>
       <c r="AQ90" s="19"/>
       <c r="AR90" s="22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
@@ -7427,7 +7382,7 @@
       <c r="AP91" s="19"/>
       <c r="AQ91" s="19"/>
       <c r="AR91" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
@@ -7475,7 +7430,7 @@
       <c r="AP92" s="19"/>
       <c r="AQ92" s="19"/>
       <c r="AR92" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
@@ -7523,7 +7478,7 @@
       <c r="AP93" s="19"/>
       <c r="AQ93" s="19"/>
       <c r="AR93" s="22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
@@ -7571,7 +7526,7 @@
       <c r="AP94" s="19"/>
       <c r="AQ94" s="19"/>
       <c r="AR94" s="22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
@@ -7619,7 +7574,7 @@
       <c r="AP95" s="19"/>
       <c r="AQ95" s="19"/>
       <c r="AR95" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
@@ -7667,7 +7622,7 @@
       <c r="AP96" s="19"/>
       <c r="AQ96" s="19"/>
       <c r="AR96" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.25">
@@ -7715,7 +7670,7 @@
       <c r="AP97" s="19"/>
       <c r="AQ97" s="19"/>
       <c r="AR97" s="22" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.25">
@@ -7763,7 +7718,7 @@
       <c r="AP98" s="19"/>
       <c r="AQ98" s="19"/>
       <c r="AR98" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.25">
@@ -7811,7 +7766,7 @@
       <c r="AP99" s="19"/>
       <c r="AQ99" s="19"/>
       <c r="AR99" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.25">
@@ -7859,7 +7814,7 @@
       <c r="AP100" s="19"/>
       <c r="AQ100" s="19"/>
       <c r="AR100" s="22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
@@ -7907,7 +7862,7 @@
       <c r="AP101" s="19"/>
       <c r="AQ101" s="19"/>
       <c r="AR101" s="22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.25">
@@ -7955,7 +7910,7 @@
       <c r="AP102" s="19"/>
       <c r="AQ102" s="19"/>
       <c r="AR102" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
@@ -8003,7 +7958,7 @@
       <c r="AP103" s="19"/>
       <c r="AQ103" s="19"/>
       <c r="AR103" s="22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.25">
@@ -8051,7 +8006,7 @@
       <c r="AP104" s="19"/>
       <c r="AQ104" s="19"/>
       <c r="AR104" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.25">
@@ -8099,7 +8054,7 @@
       <c r="AP105" s="19"/>
       <c r="AQ105" s="19"/>
       <c r="AR105" s="22" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.25">
@@ -8147,7 +8102,7 @@
       <c r="AP106" s="19"/>
       <c r="AQ106" s="19"/>
       <c r="AR106" s="22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
@@ -8195,7 +8150,7 @@
       <c r="AP107" s="19"/>
       <c r="AQ107" s="19"/>
       <c r="AR107" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
@@ -8243,7 +8198,7 @@
       <c r="AP108" s="19"/>
       <c r="AQ108" s="19"/>
       <c r="AR108" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
@@ -8291,7 +8246,7 @@
       <c r="AP109" s="19"/>
       <c r="AQ109" s="19"/>
       <c r="AR109" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.25">
@@ -8339,7 +8294,7 @@
       <c r="AP110" s="19"/>
       <c r="AQ110" s="19"/>
       <c r="AR110" s="22" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.25">
@@ -8387,7 +8342,7 @@
       <c r="AP111" s="19"/>
       <c r="AQ111" s="19"/>
       <c r="AR111" s="22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
@@ -8435,7 +8390,7 @@
       <c r="AP112" s="19"/>
       <c r="AQ112" s="19"/>
       <c r="AR112" s="22" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.25">
@@ -8483,7 +8438,7 @@
       <c r="AP113" s="19"/>
       <c r="AQ113" s="19"/>
       <c r="AR113" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
@@ -8531,7 +8486,7 @@
       <c r="AP114" s="19"/>
       <c r="AQ114" s="19"/>
       <c r="AR114" s="22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
@@ -8579,7 +8534,7 @@
       <c r="AP115" s="19"/>
       <c r="AQ115" s="19"/>
       <c r="AR115" s="22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.25">
@@ -8627,7 +8582,7 @@
       <c r="AP116" s="19"/>
       <c r="AQ116" s="19"/>
       <c r="AR116" s="22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.25">
@@ -8675,7 +8630,7 @@
       <c r="AP117" s="19"/>
       <c r="AQ117" s="19"/>
       <c r="AR117" s="22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.25">
@@ -8723,7 +8678,7 @@
       <c r="AP118" s="19"/>
       <c r="AQ118" s="19"/>
       <c r="AR118" s="22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.25">
@@ -8771,7 +8726,7 @@
       <c r="AP119" s="19"/>
       <c r="AQ119" s="19"/>
       <c r="AR119" s="22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
@@ -8819,7 +8774,7 @@
       <c r="AP120" s="19"/>
       <c r="AQ120" s="19"/>
       <c r="AR120" s="22" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
@@ -8867,7 +8822,7 @@
       <c r="AP121" s="19"/>
       <c r="AQ121" s="19"/>
       <c r="AR121" s="22" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.25">
@@ -8915,7 +8870,7 @@
       <c r="AP122" s="19"/>
       <c r="AQ122" s="19"/>
       <c r="AR122" s="22" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.25">
@@ -8963,7 +8918,7 @@
       <c r="AP123" s="19"/>
       <c r="AQ123" s="19"/>
       <c r="AR123" s="22" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.25">
@@ -9011,7 +8966,7 @@
       <c r="AP124" s="19"/>
       <c r="AQ124" s="19"/>
       <c r="AR124" s="22" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.25">
@@ -9059,7 +9014,7 @@
       <c r="AP125" s="19"/>
       <c r="AQ125" s="19"/>
       <c r="AR125" s="22" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.25">
@@ -9107,7 +9062,7 @@
       <c r="AP126" s="19"/>
       <c r="AQ126" s="19"/>
       <c r="AR126" s="22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.25">
@@ -9155,7 +9110,7 @@
       <c r="AP127" s="19"/>
       <c r="AQ127" s="19"/>
       <c r="AR127" s="22" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.25">
@@ -9203,7 +9158,7 @@
       <c r="AP128" s="19"/>
       <c r="AQ128" s="19"/>
       <c r="AR128" s="22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.25">
@@ -9251,7 +9206,7 @@
       <c r="AP129" s="19"/>
       <c r="AQ129" s="19"/>
       <c r="AR129" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.25">
@@ -9299,7 +9254,7 @@
       <c r="AP130" s="19"/>
       <c r="AQ130" s="19"/>
       <c r="AR130" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.25">
@@ -9347,7 +9302,7 @@
       <c r="AP131" s="19"/>
       <c r="AQ131" s="19"/>
       <c r="AR131" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.25">
@@ -9395,7 +9350,7 @@
       <c r="AP132" s="19"/>
       <c r="AQ132" s="19"/>
       <c r="AR132" s="22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.25">
@@ -9443,7 +9398,7 @@
       <c r="AP133" s="19"/>
       <c r="AQ133" s="19"/>
       <c r="AR133" s="22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.25">
@@ -9491,7 +9446,7 @@
       <c r="AP134" s="19"/>
       <c r="AQ134" s="19"/>
       <c r="AR134" s="22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.25">
@@ -9539,7 +9494,7 @@
       <c r="AP135" s="19"/>
       <c r="AQ135" s="19"/>
       <c r="AR135" s="22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.25">
@@ -9587,7 +9542,7 @@
       <c r="AP136" s="19"/>
       <c r="AQ136" s="19"/>
       <c r="AR136" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:44" x14ac:dyDescent="0.25">
@@ -9635,7 +9590,7 @@
       <c r="AP137" s="19"/>
       <c r="AQ137" s="19"/>
       <c r="AR137" s="22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.25">
@@ -9683,7 +9638,7 @@
       <c r="AP138" s="19"/>
       <c r="AQ138" s="19"/>
       <c r="AR138" s="22" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.25">
@@ -9731,7 +9686,7 @@
       <c r="AP139" s="19"/>
       <c r="AQ139" s="19"/>
       <c r="AR139" s="22" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.25">
@@ -9779,7 +9734,7 @@
       <c r="AP140" s="19"/>
       <c r="AQ140" s="19"/>
       <c r="AR140" s="22" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.25">
@@ -9827,7 +9782,7 @@
       <c r="AP141" s="19"/>
       <c r="AQ141" s="19"/>
       <c r="AR141" s="22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.25">
@@ -9875,7 +9830,7 @@
       <c r="AP142" s="19"/>
       <c r="AQ142" s="19"/>
       <c r="AR142" s="22" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.25">
@@ -9923,7 +9878,7 @@
       <c r="AP143" s="19"/>
       <c r="AQ143" s="19"/>
       <c r="AR143" s="22" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:44" x14ac:dyDescent="0.25">
@@ -9971,7 +9926,7 @@
       <c r="AP144" s="19"/>
       <c r="AQ144" s="19"/>
       <c r="AR144" s="22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.25">
@@ -10019,7 +9974,7 @@
       <c r="AP145" s="19"/>
       <c r="AQ145" s="19"/>
       <c r="AR145" s="22" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.25">
@@ -10067,7 +10022,7 @@
       <c r="AP146" s="19"/>
       <c r="AQ146" s="19"/>
       <c r="AR146" s="22" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.25">
@@ -10115,7 +10070,7 @@
       <c r="AP147" s="19"/>
       <c r="AQ147" s="19"/>
       <c r="AR147" s="22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.25">
@@ -10163,7 +10118,7 @@
       <c r="AP148" s="19"/>
       <c r="AQ148" s="19"/>
       <c r="AR148" s="22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.25">
@@ -10211,7 +10166,7 @@
       <c r="AP149" s="19"/>
       <c r="AQ149" s="19"/>
       <c r="AR149" s="22" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.25">
@@ -10259,7 +10214,7 @@
       <c r="AP150" s="19"/>
       <c r="AQ150" s="19"/>
       <c r="AR150" s="22" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:44" x14ac:dyDescent="0.25">
@@ -10307,7 +10262,7 @@
       <c r="AP151" s="19"/>
       <c r="AQ151" s="19"/>
       <c r="AR151" s="22" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:44" x14ac:dyDescent="0.25">
@@ -10355,7 +10310,7 @@
       <c r="AP152" s="19"/>
       <c r="AQ152" s="19"/>
       <c r="AR152" s="22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.25">
@@ -10403,7 +10358,7 @@
       <c r="AP153" s="19"/>
       <c r="AQ153" s="19"/>
       <c r="AR153" s="22" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.25">
@@ -10451,7 +10406,7 @@
       <c r="AP154" s="19"/>
       <c r="AQ154" s="19"/>
       <c r="AR154" s="22" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.25">
@@ -10499,7 +10454,7 @@
       <c r="AP155" s="19"/>
       <c r="AQ155" s="19"/>
       <c r="AR155" s="22" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.25">
@@ -10547,7 +10502,7 @@
       <c r="AP156" s="19"/>
       <c r="AQ156" s="19"/>
       <c r="AR156" s="22" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.25">
@@ -10595,7 +10550,7 @@
       <c r="AP157" s="19"/>
       <c r="AQ157" s="19"/>
       <c r="AR157" s="22" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.25">
@@ -10643,7 +10598,7 @@
       <c r="AP158" s="19"/>
       <c r="AQ158" s="19"/>
       <c r="AR158" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.25">
@@ -10691,7 +10646,7 @@
       <c r="AP159" s="19"/>
       <c r="AQ159" s="19"/>
       <c r="AR159" s="22" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.25">
@@ -10739,7 +10694,7 @@
       <c r="AP160" s="19"/>
       <c r="AQ160" s="19"/>
       <c r="AR160" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.25">
@@ -10787,7 +10742,7 @@
       <c r="AP161" s="19"/>
       <c r="AQ161" s="19"/>
       <c r="AR161" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.25">
@@ -10835,7 +10790,7 @@
       <c r="AP162" s="19"/>
       <c r="AQ162" s="19"/>
       <c r="AR162" s="22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:44" x14ac:dyDescent="0.25">
@@ -10883,7 +10838,7 @@
       <c r="AP163" s="19"/>
       <c r="AQ163" s="19"/>
       <c r="AR163" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:44" x14ac:dyDescent="0.25">
@@ -10931,7 +10886,7 @@
       <c r="AP164" s="19"/>
       <c r="AQ164" s="19"/>
       <c r="AR164" s="22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.25">
@@ -10979,7 +10934,7 @@
       <c r="AP165" s="19"/>
       <c r="AQ165" s="19"/>
       <c r="AR165" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:44" x14ac:dyDescent="0.25">
@@ -11027,7 +10982,7 @@
       <c r="AP166" s="19"/>
       <c r="AQ166" s="19"/>
       <c r="AR166" s="22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:44" x14ac:dyDescent="0.25">
@@ -11075,7 +11030,7 @@
       <c r="AP167" s="19"/>
       <c r="AQ167" s="19"/>
       <c r="AR167" s="22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:44" x14ac:dyDescent="0.25">
@@ -11123,7 +11078,7 @@
       <c r="AP168" s="19"/>
       <c r="AQ168" s="19"/>
       <c r="AR168" s="22" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:44" x14ac:dyDescent="0.25">
@@ -11171,7 +11126,7 @@
       <c r="AP169" s="19"/>
       <c r="AQ169" s="19"/>
       <c r="AR169" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:44" x14ac:dyDescent="0.25">
@@ -11219,7 +11174,7 @@
       <c r="AP170" s="19"/>
       <c r="AQ170" s="19"/>
       <c r="AR170" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:44" x14ac:dyDescent="0.25">
@@ -11267,7 +11222,7 @@
       <c r="AP171" s="19"/>
       <c r="AQ171" s="19"/>
       <c r="AR171" s="22" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:44" x14ac:dyDescent="0.25">
@@ -11315,7 +11270,7 @@
       <c r="AP172" s="19"/>
       <c r="AQ172" s="19"/>
       <c r="AR172" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.25">
@@ -11363,7 +11318,7 @@
       <c r="AP173" s="19"/>
       <c r="AQ173" s="19"/>
       <c r="AR173" s="22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:44" x14ac:dyDescent="0.25">
@@ -11411,7 +11366,7 @@
       <c r="AP174" s="19"/>
       <c r="AQ174" s="19"/>
       <c r="AR174" s="22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:44" x14ac:dyDescent="0.25">
@@ -11459,7 +11414,7 @@
       <c r="AP175" s="19"/>
       <c r="AQ175" s="19"/>
       <c r="AR175" s="22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:44" x14ac:dyDescent="0.25">
@@ -11507,7 +11462,7 @@
       <c r="AP176" s="19"/>
       <c r="AQ176" s="19"/>
       <c r="AR176" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:44" x14ac:dyDescent="0.25">
@@ -11555,7 +11510,7 @@
       <c r="AP177" s="19"/>
       <c r="AQ177" s="19"/>
       <c r="AR177" s="22" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.25">
@@ -11603,7 +11558,7 @@
       <c r="AP178" s="19"/>
       <c r="AQ178" s="19"/>
       <c r="AR178" s="22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.25">
@@ -11651,7 +11606,7 @@
       <c r="AP179" s="19"/>
       <c r="AQ179" s="19"/>
       <c r="AR179" s="22" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.25">
@@ -11699,7 +11654,7 @@
       <c r="AP180" s="19"/>
       <c r="AQ180" s="19"/>
       <c r="AR180" s="22" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.25">
@@ -11747,7 +11702,7 @@
       <c r="AP181" s="19"/>
       <c r="AQ181" s="19"/>
       <c r="AR181" s="22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:44" x14ac:dyDescent="0.25">
@@ -11795,7 +11750,7 @@
       <c r="AP182" s="19"/>
       <c r="AQ182" s="19"/>
       <c r="AR182" s="22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:44" x14ac:dyDescent="0.25">
@@ -11843,7 +11798,7 @@
       <c r="AP183" s="19"/>
       <c r="AQ183" s="19"/>
       <c r="AR183" s="22" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:44" x14ac:dyDescent="0.25">
@@ -11891,7 +11846,7 @@
       <c r="AP184" s="19"/>
       <c r="AQ184" s="19"/>
       <c r="AR184" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:44" x14ac:dyDescent="0.25">
@@ -11939,7 +11894,7 @@
       <c r="AP185" s="19"/>
       <c r="AQ185" s="19"/>
       <c r="AR185" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:44" x14ac:dyDescent="0.25">
@@ -11987,7 +11942,7 @@
       <c r="AP186" s="19"/>
       <c r="AQ186" s="19"/>
       <c r="AR186" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:44" x14ac:dyDescent="0.25">
@@ -12035,7 +11990,7 @@
       <c r="AP187" s="19"/>
       <c r="AQ187" s="19"/>
       <c r="AR187" s="22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:44" x14ac:dyDescent="0.25">
@@ -12083,7 +12038,7 @@
       <c r="AP188" s="19"/>
       <c r="AQ188" s="19"/>
       <c r="AR188" s="22" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.25">
@@ -12131,7 +12086,7 @@
       <c r="AP189" s="19"/>
       <c r="AQ189" s="19"/>
       <c r="AR189" s="22" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:44" x14ac:dyDescent="0.25">
@@ -12179,7 +12134,7 @@
       <c r="AP190" s="19"/>
       <c r="AQ190" s="19"/>
       <c r="AR190" s="22" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:44" x14ac:dyDescent="0.25">
@@ -12227,7 +12182,7 @@
       <c r="AP191" s="19"/>
       <c r="AQ191" s="19"/>
       <c r="AR191" s="22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.25">
@@ -12275,7 +12230,7 @@
       <c r="AP192" s="19"/>
       <c r="AQ192" s="19"/>
       <c r="AR192" s="22" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:44" x14ac:dyDescent="0.25">
@@ -12323,7 +12278,7 @@
       <c r="AP193" s="19"/>
       <c r="AQ193" s="19"/>
       <c r="AR193" s="22" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:44" x14ac:dyDescent="0.25">
@@ -12371,7 +12326,7 @@
       <c r="AP194" s="19"/>
       <c r="AQ194" s="19"/>
       <c r="AR194" s="22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:44" x14ac:dyDescent="0.25">
@@ -12419,7 +12374,7 @@
       <c r="AP195" s="19"/>
       <c r="AQ195" s="19"/>
       <c r="AR195" s="22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:44" x14ac:dyDescent="0.25">
@@ -12467,7 +12422,7 @@
       <c r="AP196" s="19"/>
       <c r="AQ196" s="19"/>
       <c r="AR196" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.25">
@@ -12515,7 +12470,7 @@
       <c r="AP197" s="19"/>
       <c r="AQ197" s="19"/>
       <c r="AR197" s="22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:44" x14ac:dyDescent="0.25">
@@ -12563,7 +12518,7 @@
       <c r="AP198" s="19"/>
       <c r="AQ198" s="19"/>
       <c r="AR198" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:44" x14ac:dyDescent="0.25">
@@ -12611,7 +12566,7 @@
       <c r="AP199" s="19"/>
       <c r="AQ199" s="19"/>
       <c r="AR199" s="22" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:44" x14ac:dyDescent="0.25">
@@ -12659,7 +12614,7 @@
       <c r="AP200" s="19"/>
       <c r="AQ200" s="19"/>
       <c r="AR200" s="22" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:44" x14ac:dyDescent="0.25">
@@ -12707,7 +12662,7 @@
       <c r="AP201" s="19"/>
       <c r="AQ201" s="19"/>
       <c r="AR201" s="22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:44" x14ac:dyDescent="0.25">
@@ -12755,7 +12710,7 @@
       <c r="AP202" s="19"/>
       <c r="AQ202" s="19"/>
       <c r="AR202" s="22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:44" x14ac:dyDescent="0.25">
@@ -12803,7 +12758,7 @@
       <c r="AP203" s="19"/>
       <c r="AQ203" s="19"/>
       <c r="AR203" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:44" x14ac:dyDescent="0.25">
@@ -12851,7 +12806,7 @@
       <c r="AP204" s="19"/>
       <c r="AQ204" s="19"/>
       <c r="AR204" s="22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:44" x14ac:dyDescent="0.25">
@@ -12899,7 +12854,7 @@
       <c r="AP205" s="19"/>
       <c r="AQ205" s="19"/>
       <c r="AR205" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:44" x14ac:dyDescent="0.25">
@@ -12947,7 +12902,7 @@
       <c r="AP206" s="19"/>
       <c r="AQ206" s="19"/>
       <c r="AR206" s="22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207" spans="1:44" x14ac:dyDescent="0.25">
@@ -12995,7 +12950,7 @@
       <c r="AP207" s="19"/>
       <c r="AQ207" s="19"/>
       <c r="AR207" s="22" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:44" x14ac:dyDescent="0.25">
@@ -13043,7 +12998,7 @@
       <c r="AP208" s="19"/>
       <c r="AQ208" s="19"/>
       <c r="AR208" s="22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:44" x14ac:dyDescent="0.25">
@@ -13091,7 +13046,7 @@
       <c r="AP209" s="19"/>
       <c r="AQ209" s="19"/>
       <c r="AR209" s="22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:44" x14ac:dyDescent="0.25">
@@ -13139,7 +13094,7 @@
       <c r="AP210" s="19"/>
       <c r="AQ210" s="19"/>
       <c r="AR210" s="22" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:44" x14ac:dyDescent="0.25">
@@ -13187,7 +13142,7 @@
       <c r="AP211" s="19"/>
       <c r="AQ211" s="19"/>
       <c r="AR211" s="22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:44" x14ac:dyDescent="0.25">
@@ -13235,7 +13190,7 @@
       <c r="AP212" s="19"/>
       <c r="AQ212" s="19"/>
       <c r="AR212" s="22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.25">
@@ -13283,7 +13238,7 @@
       <c r="AP213" s="19"/>
       <c r="AQ213" s="19"/>
       <c r="AR213" s="22" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:44" x14ac:dyDescent="0.25">
@@ -13331,7 +13286,7 @@
       <c r="AP214" s="19"/>
       <c r="AQ214" s="19"/>
       <c r="AR214" s="22" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.25">
@@ -13379,7 +13334,7 @@
       <c r="AP215" s="19"/>
       <c r="AQ215" s="19"/>
       <c r="AR215" s="22" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" spans="1:44" x14ac:dyDescent="0.25">
@@ -13427,7 +13382,7 @@
       <c r="AP216" s="19"/>
       <c r="AQ216" s="19"/>
       <c r="AR216" s="22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" spans="1:44" x14ac:dyDescent="0.25">
@@ -13475,7 +13430,7 @@
       <c r="AP217" s="19"/>
       <c r="AQ217" s="19"/>
       <c r="AR217" s="22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:44" x14ac:dyDescent="0.25">
@@ -13523,7 +13478,7 @@
       <c r="AP218" s="19"/>
       <c r="AQ218" s="19"/>
       <c r="AR218" s="22" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:44" x14ac:dyDescent="0.25">
@@ -13571,7 +13526,7 @@
       <c r="AP219" s="19"/>
       <c r="AQ219" s="19"/>
       <c r="AR219" s="22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:44" x14ac:dyDescent="0.25">
@@ -13619,7 +13574,7 @@
       <c r="AP220" s="19"/>
       <c r="AQ220" s="19"/>
       <c r="AR220" s="22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:44" x14ac:dyDescent="0.25">
@@ -13667,7 +13622,7 @@
       <c r="AP221" s="19"/>
       <c r="AQ221" s="19"/>
       <c r="AR221" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:44" x14ac:dyDescent="0.25">
@@ -13715,7 +13670,7 @@
       <c r="AP222" s="19"/>
       <c r="AQ222" s="19"/>
       <c r="AR222" s="22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:44" x14ac:dyDescent="0.25">
@@ -13763,7 +13718,7 @@
       <c r="AP223" s="19"/>
       <c r="AQ223" s="19"/>
       <c r="AR223" s="22" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:44" x14ac:dyDescent="0.25">
@@ -13811,7 +13766,7 @@
       <c r="AP224" s="19"/>
       <c r="AQ224" s="19"/>
       <c r="AR224" s="22" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.25">
@@ -13859,7 +13814,7 @@
       <c r="AP225" s="19"/>
       <c r="AQ225" s="19"/>
       <c r="AR225" s="22" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.25">
@@ -13907,7 +13862,7 @@
       <c r="AP226" s="19"/>
       <c r="AQ226" s="19"/>
       <c r="AR226" s="22" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:44" x14ac:dyDescent="0.25">
@@ -13955,7 +13910,7 @@
       <c r="AP227" s="19"/>
       <c r="AQ227" s="19"/>
       <c r="AR227" s="22" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:44" x14ac:dyDescent="0.25">
@@ -14003,7 +13958,7 @@
       <c r="AP228" s="19"/>
       <c r="AQ228" s="19"/>
       <c r="AR228" s="22" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:44" x14ac:dyDescent="0.25">
@@ -14051,7 +14006,7 @@
       <c r="AP229" s="19"/>
       <c r="AQ229" s="19"/>
       <c r="AR229" s="22" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:44" x14ac:dyDescent="0.25">
@@ -14099,7 +14054,7 @@
       <c r="AP230" s="19"/>
       <c r="AQ230" s="19"/>
       <c r="AR230" s="22" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:44" x14ac:dyDescent="0.25">
@@ -14147,7 +14102,7 @@
       <c r="AP231" s="19"/>
       <c r="AQ231" s="19"/>
       <c r="AR231" s="22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:44" x14ac:dyDescent="0.25">
@@ -14195,7 +14150,7 @@
       <c r="AP232" s="19"/>
       <c r="AQ232" s="19"/>
       <c r="AR232" s="22" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:44" x14ac:dyDescent="0.25">
@@ -14243,7 +14198,7 @@
       <c r="AP233" s="19"/>
       <c r="AQ233" s="19"/>
       <c r="AR233" s="22" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.25">
@@ -14291,7 +14246,7 @@
       <c r="AP234" s="19"/>
       <c r="AQ234" s="19"/>
       <c r="AR234" s="22" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:44" x14ac:dyDescent="0.25">
@@ -14339,7 +14294,7 @@
       <c r="AP235" s="19"/>
       <c r="AQ235" s="19"/>
       <c r="AR235" s="22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:44" x14ac:dyDescent="0.25">
@@ -14387,7 +14342,7 @@
       <c r="AP236" s="19"/>
       <c r="AQ236" s="19"/>
       <c r="AR236" s="22" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:44" x14ac:dyDescent="0.25">
@@ -14435,7 +14390,7 @@
       <c r="AP237" s="19"/>
       <c r="AQ237" s="19"/>
       <c r="AR237" s="22" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:44" x14ac:dyDescent="0.25">
@@ -14483,7 +14438,7 @@
       <c r="AP238" s="19"/>
       <c r="AQ238" s="19"/>
       <c r="AR238" s="22" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:44" x14ac:dyDescent="0.25">
@@ -14531,7 +14486,7 @@
       <c r="AP239" s="19"/>
       <c r="AQ239" s="19"/>
       <c r="AR239" s="22" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="240" spans="1:44" x14ac:dyDescent="0.25">
@@ -14579,7 +14534,7 @@
       <c r="AP240" s="19"/>
       <c r="AQ240" s="19"/>
       <c r="AR240" s="22" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" spans="1:44" x14ac:dyDescent="0.25">
@@ -14627,7 +14582,7 @@
       <c r="AP241" s="19"/>
       <c r="AQ241" s="19"/>
       <c r="AR241" s="22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:44" x14ac:dyDescent="0.25">
@@ -14675,7 +14630,7 @@
       <c r="AP242" s="19"/>
       <c r="AQ242" s="19"/>
       <c r="AR242" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="1:44" x14ac:dyDescent="0.25">
@@ -14723,7 +14678,7 @@
       <c r="AP243" s="19"/>
       <c r="AQ243" s="19"/>
       <c r="AR243" s="22" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" spans="1:44" x14ac:dyDescent="0.25">
@@ -14771,7 +14726,7 @@
       <c r="AP244" s="19"/>
       <c r="AQ244" s="19"/>
       <c r="AR244" s="22" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:44" x14ac:dyDescent="0.25">
@@ -14819,7 +14774,7 @@
       <c r="AP245" s="19"/>
       <c r="AQ245" s="19"/>
       <c r="AR245" s="22" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:44" x14ac:dyDescent="0.25">
@@ -14867,7 +14822,7 @@
       <c r="AP246" s="19"/>
       <c r="AQ246" s="19"/>
       <c r="AR246" s="22" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="247" spans="1:44" x14ac:dyDescent="0.25">
@@ -14915,7 +14870,7 @@
       <c r="AP247" s="19"/>
       <c r="AQ247" s="19"/>
       <c r="AR247" s="22" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:44" x14ac:dyDescent="0.25">
@@ -14963,7 +14918,7 @@
       <c r="AP248" s="19"/>
       <c r="AQ248" s="19"/>
       <c r="AR248" s="22" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:44" x14ac:dyDescent="0.25">
@@ -15011,7 +14966,7 @@
       <c r="AP249" s="19"/>
       <c r="AQ249" s="19"/>
       <c r="AR249" s="22" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" spans="1:44" x14ac:dyDescent="0.25">
@@ -15059,7 +15014,7 @@
       <c r="AP250" s="19"/>
       <c r="AQ250" s="19"/>
       <c r="AR250" s="22" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:44" x14ac:dyDescent="0.25">
@@ -15107,7 +15062,7 @@
       <c r="AP251" s="19"/>
       <c r="AQ251" s="19"/>
       <c r="AR251" s="22" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:44" x14ac:dyDescent="0.25">
@@ -15155,7 +15110,7 @@
       <c r="AP252" s="19"/>
       <c r="AQ252" s="19"/>
       <c r="AR252" s="22" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:44" x14ac:dyDescent="0.25">
@@ -15203,7 +15158,7 @@
       <c r="AP253" s="19"/>
       <c r="AQ253" s="19"/>
       <c r="AR253" s="22" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:44" x14ac:dyDescent="0.25">
@@ -15251,7 +15206,7 @@
       <c r="AP254" s="19"/>
       <c r="AQ254" s="19"/>
       <c r="AR254" s="22" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:44" x14ac:dyDescent="0.25">
@@ -15299,7 +15254,7 @@
       <c r="AP255" s="19"/>
       <c r="AQ255" s="19"/>
       <c r="AR255" s="22" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:44" x14ac:dyDescent="0.25">
@@ -15347,7 +15302,7 @@
       <c r="AP256" s="19"/>
       <c r="AQ256" s="19"/>
       <c r="AR256" s="22" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:44" x14ac:dyDescent="0.25">
@@ -15395,7 +15350,7 @@
       <c r="AP257" s="19"/>
       <c r="AQ257" s="19"/>
       <c r="AR257" s="22" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:44" x14ac:dyDescent="0.25">
@@ -15443,7 +15398,7 @@
       <c r="AP258" s="19"/>
       <c r="AQ258" s="19"/>
       <c r="AR258" s="22" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:44" x14ac:dyDescent="0.25">
@@ -15491,7 +15446,7 @@
       <c r="AP259" s="19"/>
       <c r="AQ259" s="19"/>
       <c r="AR259" s="22" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:44" x14ac:dyDescent="0.25">
@@ -15539,7 +15494,7 @@
       <c r="AP260" s="19"/>
       <c r="AQ260" s="19"/>
       <c r="AR260" s="22" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:44" x14ac:dyDescent="0.25">
@@ -15587,7 +15542,7 @@
       <c r="AP261" s="19"/>
       <c r="AQ261" s="19"/>
       <c r="AR261" s="22" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:44" x14ac:dyDescent="0.25">
@@ -15635,7 +15590,7 @@
       <c r="AP262" s="19"/>
       <c r="AQ262" s="19"/>
       <c r="AR262" s="22" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="263" spans="1:44" x14ac:dyDescent="0.25">
@@ -15683,7 +15638,7 @@
       <c r="AP263" s="19"/>
       <c r="AQ263" s="19"/>
       <c r="AR263" s="22" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:44" x14ac:dyDescent="0.25">
@@ -15731,7 +15686,7 @@
       <c r="AP264" s="19"/>
       <c r="AQ264" s="19"/>
       <c r="AR264" s="22" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:44" x14ac:dyDescent="0.25">
@@ -15779,7 +15734,7 @@
       <c r="AP265" s="19"/>
       <c r="AQ265" s="19"/>
       <c r="AR265" s="22" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:44" x14ac:dyDescent="0.25">
@@ -15827,7 +15782,7 @@
       <c r="AP266" s="19"/>
       <c r="AQ266" s="19"/>
       <c r="AR266" s="22" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="267" spans="1:44" x14ac:dyDescent="0.25">
@@ -15875,7 +15830,7 @@
       <c r="AP267" s="19"/>
       <c r="AQ267" s="19"/>
       <c r="AR267" s="22" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" spans="1:44" x14ac:dyDescent="0.25">
@@ -15923,7 +15878,7 @@
       <c r="AP268" s="19"/>
       <c r="AQ268" s="19"/>
       <c r="AR268" s="22" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="269" spans="1:44" x14ac:dyDescent="0.25">
@@ -15971,7 +15926,7 @@
       <c r="AP269" s="19"/>
       <c r="AQ269" s="19"/>
       <c r="AR269" s="22" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="270" spans="1:44" x14ac:dyDescent="0.25">
@@ -16019,7 +15974,7 @@
       <c r="AP270" s="19"/>
       <c r="AQ270" s="19"/>
       <c r="AR270" s="22" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="271" spans="1:44" x14ac:dyDescent="0.25">
@@ -16067,7 +16022,7 @@
       <c r="AP271" s="19"/>
       <c r="AQ271" s="19"/>
       <c r="AR271" s="22" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="1:44" x14ac:dyDescent="0.25">
@@ -16115,7 +16070,7 @@
       <c r="AP272" s="19"/>
       <c r="AQ272" s="19"/>
       <c r="AR272" s="22" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:44" x14ac:dyDescent="0.25">
@@ -16163,7 +16118,7 @@
       <c r="AP273" s="19"/>
       <c r="AQ273" s="19"/>
       <c r="AR273" s="22" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:44" x14ac:dyDescent="0.25">
@@ -16211,7 +16166,7 @@
       <c r="AP274" s="19"/>
       <c r="AQ274" s="19"/>
       <c r="AR274" s="22" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="275" spans="1:44" x14ac:dyDescent="0.25">
@@ -16259,7 +16214,7 @@
       <c r="AP275" s="19"/>
       <c r="AQ275" s="19"/>
       <c r="AR275" s="22" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:44" x14ac:dyDescent="0.25">
@@ -16307,7 +16262,7 @@
       <c r="AP276" s="19"/>
       <c r="AQ276" s="19"/>
       <c r="AR276" s="22" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:44" x14ac:dyDescent="0.25">
@@ -16355,7 +16310,7 @@
       <c r="AP277" s="19"/>
       <c r="AQ277" s="19"/>
       <c r="AR277" s="22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:44" x14ac:dyDescent="0.25">
@@ -16403,7 +16358,7 @@
       <c r="AP278" s="19"/>
       <c r="AQ278" s="19"/>
       <c r="AR278" s="22" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:44" x14ac:dyDescent="0.25">
@@ -16451,7 +16406,7 @@
       <c r="AP279" s="19"/>
       <c r="AQ279" s="19"/>
       <c r="AR279" s="22" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="280" spans="1:44" x14ac:dyDescent="0.25">
@@ -16499,7 +16454,7 @@
       <c r="AP280" s="19"/>
       <c r="AQ280" s="19"/>
       <c r="AR280" s="22" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:44" x14ac:dyDescent="0.25">
@@ -16547,7 +16502,7 @@
       <c r="AP281" s="19"/>
       <c r="AQ281" s="19"/>
       <c r="AR281" s="22" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="282" spans="1:44" x14ac:dyDescent="0.25">
@@ -16595,7 +16550,7 @@
       <c r="AP282" s="19"/>
       <c r="AQ282" s="19"/>
       <c r="AR282" s="22" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:44" x14ac:dyDescent="0.25">
@@ -16643,7 +16598,7 @@
       <c r="AP283" s="19"/>
       <c r="AQ283" s="19"/>
       <c r="AR283" s="22" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284" spans="1:44" x14ac:dyDescent="0.25">
@@ -16691,7 +16646,7 @@
       <c r="AP284" s="19"/>
       <c r="AQ284" s="19"/>
       <c r="AR284" s="22" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:44" x14ac:dyDescent="0.25">
@@ -16739,7 +16694,7 @@
       <c r="AP285" s="19"/>
       <c r="AQ285" s="19"/>
       <c r="AR285" s="22" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" spans="1:44" x14ac:dyDescent="0.25">
@@ -16787,7 +16742,7 @@
       <c r="AP286" s="19"/>
       <c r="AQ286" s="19"/>
       <c r="AR286" s="22" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:44" x14ac:dyDescent="0.25">
@@ -16835,7 +16790,7 @@
       <c r="AP287" s="19"/>
       <c r="AQ287" s="19"/>
       <c r="AR287" s="22" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:44" x14ac:dyDescent="0.25">
@@ -16883,7 +16838,7 @@
       <c r="AP288" s="19"/>
       <c r="AQ288" s="19"/>
       <c r="AR288" s="22" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:44" x14ac:dyDescent="0.25">
@@ -16931,7 +16886,7 @@
       <c r="AP289" s="19"/>
       <c r="AQ289" s="19"/>
       <c r="AR289" s="22" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="1:44" x14ac:dyDescent="0.25">
@@ -16979,7 +16934,7 @@
       <c r="AP290" s="19"/>
       <c r="AQ290" s="19"/>
       <c r="AR290" s="22" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="291" spans="1:44" x14ac:dyDescent="0.25">
@@ -17027,7 +16982,7 @@
       <c r="AP291" s="19"/>
       <c r="AQ291" s="19"/>
       <c r="AR291" s="22" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="292" spans="1:44" x14ac:dyDescent="0.25">
@@ -17075,7 +17030,7 @@
       <c r="AP292" s="19"/>
       <c r="AQ292" s="19"/>
       <c r="AR292" s="22" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="293" spans="1:44" x14ac:dyDescent="0.25">
@@ -17123,7 +17078,7 @@
       <c r="AP293" s="19"/>
       <c r="AQ293" s="19"/>
       <c r="AR293" s="22" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" spans="1:44" x14ac:dyDescent="0.25">
@@ -17171,7 +17126,7 @@
       <c r="AP294" s="19"/>
       <c r="AQ294" s="19"/>
       <c r="AR294" s="22" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="295" spans="1:44" x14ac:dyDescent="0.25">
@@ -17219,7 +17174,7 @@
       <c r="AP295" s="19"/>
       <c r="AQ295" s="19"/>
       <c r="AR295" s="22" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="296" spans="1:44" x14ac:dyDescent="0.25">
@@ -17267,7 +17222,7 @@
       <c r="AP296" s="19"/>
       <c r="AQ296" s="19"/>
       <c r="AR296" s="22" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="297" spans="1:44" x14ac:dyDescent="0.25">
@@ -17315,7 +17270,7 @@
       <c r="AP297" s="19"/>
       <c r="AQ297" s="19"/>
       <c r="AR297" s="22" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="298" spans="1:44" x14ac:dyDescent="0.25">
@@ -17363,7 +17318,7 @@
       <c r="AP298" s="19"/>
       <c r="AQ298" s="19"/>
       <c r="AR298" s="22" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="299" spans="1:44" x14ac:dyDescent="0.25">
@@ -17411,7 +17366,7 @@
       <c r="AP299" s="19"/>
       <c r="AQ299" s="19"/>
       <c r="AR299" s="22" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="300" spans="1:44" x14ac:dyDescent="0.25">
@@ -17459,7 +17414,7 @@
       <c r="AP300" s="19"/>
       <c r="AQ300" s="19"/>
       <c r="AR300" s="22" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="301" spans="1:44" x14ac:dyDescent="0.25">
@@ -17507,7 +17462,7 @@
       <c r="AP301" s="19"/>
       <c r="AQ301" s="19"/>
       <c r="AR301" s="22" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="302" spans="1:44" x14ac:dyDescent="0.25">
@@ -17555,7 +17510,7 @@
       <c r="AP302" s="19"/>
       <c r="AQ302" s="19"/>
       <c r="AR302" s="22" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="303" spans="1:44" x14ac:dyDescent="0.25">
@@ -17603,7 +17558,7 @@
       <c r="AP303" s="19"/>
       <c r="AQ303" s="19"/>
       <c r="AR303" s="22" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="304" spans="1:44" x14ac:dyDescent="0.25">
@@ -17651,7 +17606,7 @@
       <c r="AP304" s="19"/>
       <c r="AQ304" s="19"/>
       <c r="AR304" s="22" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="305" spans="1:44" x14ac:dyDescent="0.25">
@@ -17699,7 +17654,7 @@
       <c r="AP305" s="19"/>
       <c r="AQ305" s="19"/>
       <c r="AR305" s="22" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="306" spans="1:44" x14ac:dyDescent="0.25">
@@ -17747,7 +17702,7 @@
       <c r="AP306" s="19"/>
       <c r="AQ306" s="19"/>
       <c r="AR306" s="22" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="307" spans="1:44" x14ac:dyDescent="0.25">
@@ -17795,7 +17750,7 @@
       <c r="AP307" s="19"/>
       <c r="AQ307" s="19"/>
       <c r="AR307" s="22" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="308" spans="1:44" x14ac:dyDescent="0.25">
@@ -17843,7 +17798,7 @@
       <c r="AP308" s="19"/>
       <c r="AQ308" s="19"/>
       <c r="AR308" s="22" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="309" spans="1:44" x14ac:dyDescent="0.25">
@@ -17891,7 +17846,7 @@
       <c r="AP309" s="19"/>
       <c r="AQ309" s="19"/>
       <c r="AR309" s="22" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="310" spans="1:44" x14ac:dyDescent="0.25">
@@ -17939,7 +17894,7 @@
       <c r="AP310" s="19"/>
       <c r="AQ310" s="19"/>
       <c r="AR310" s="22" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="311" spans="1:44" x14ac:dyDescent="0.25">
@@ -17987,7 +17942,7 @@
       <c r="AP311" s="19"/>
       <c r="AQ311" s="19"/>
       <c r="AR311" s="22" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="312" spans="1:44" x14ac:dyDescent="0.25">
@@ -18035,7 +17990,7 @@
       <c r="AP312" s="19"/>
       <c r="AQ312" s="19"/>
       <c r="AR312" s="22" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="313" spans="1:44" x14ac:dyDescent="0.25">
@@ -18083,7 +18038,7 @@
       <c r="AP313" s="19"/>
       <c r="AQ313" s="19"/>
       <c r="AR313" s="22" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="314" spans="1:44" x14ac:dyDescent="0.25">
@@ -18131,7 +18086,7 @@
       <c r="AP314" s="19"/>
       <c r="AQ314" s="19"/>
       <c r="AR314" s="22" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="315" spans="1:44" x14ac:dyDescent="0.25">
@@ -18179,7 +18134,7 @@
       <c r="AP315" s="19"/>
       <c r="AQ315" s="19"/>
       <c r="AR315" s="22" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="316" spans="1:44" x14ac:dyDescent="0.25">
@@ -18227,7 +18182,7 @@
       <c r="AP316" s="19"/>
       <c r="AQ316" s="19"/>
       <c r="AR316" s="22" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="317" spans="1:44" x14ac:dyDescent="0.25">
@@ -18275,7 +18230,7 @@
       <c r="AP317" s="19"/>
       <c r="AQ317" s="19"/>
       <c r="AR317" s="22" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="318" spans="1:44" x14ac:dyDescent="0.25">
@@ -18323,7 +18278,7 @@
       <c r="AP318" s="19"/>
       <c r="AQ318" s="19"/>
       <c r="AR318" s="22" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="319" spans="1:44" x14ac:dyDescent="0.25">
@@ -18371,7 +18326,7 @@
       <c r="AP319" s="19"/>
       <c r="AQ319" s="19"/>
       <c r="AR319" s="22" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="320" spans="1:44" x14ac:dyDescent="0.25">
@@ -18419,7 +18374,7 @@
       <c r="AP320" s="19"/>
       <c r="AQ320" s="19"/>
       <c r="AR320" s="22" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="321" spans="1:44" x14ac:dyDescent="0.25">
@@ -18467,7 +18422,7 @@
       <c r="AP321" s="19"/>
       <c r="AQ321" s="19"/>
       <c r="AR321" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="322" spans="1:44" x14ac:dyDescent="0.25">
@@ -18515,7 +18470,7 @@
       <c r="AP322" s="19"/>
       <c r="AQ322" s="19"/>
       <c r="AR322" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="323" spans="1:44" x14ac:dyDescent="0.25">
@@ -18563,7 +18518,7 @@
       <c r="AP323" s="19"/>
       <c r="AQ323" s="19"/>
       <c r="AR323" s="22" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="324" spans="1:44" x14ac:dyDescent="0.25">
@@ -18611,7 +18566,7 @@
       <c r="AP324" s="19"/>
       <c r="AQ324" s="19"/>
       <c r="AR324" s="22" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="325" spans="1:44" x14ac:dyDescent="0.25">
@@ -18659,7 +18614,7 @@
       <c r="AP325" s="19"/>
       <c r="AQ325" s="19"/>
       <c r="AR325" s="22" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="326" spans="1:44" x14ac:dyDescent="0.25">
@@ -18707,7 +18662,7 @@
       <c r="AP326" s="19"/>
       <c r="AQ326" s="19"/>
       <c r="AR326" s="22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="327" spans="1:44" x14ac:dyDescent="0.25">
@@ -18755,7 +18710,7 @@
       <c r="AP327" s="19"/>
       <c r="AQ327" s="19"/>
       <c r="AR327" s="22" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="328" spans="1:44" x14ac:dyDescent="0.25">
@@ -18803,7 +18758,7 @@
       <c r="AP328" s="19"/>
       <c r="AQ328" s="19"/>
       <c r="AR328" s="22" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="329" spans="1:44" x14ac:dyDescent="0.25">
@@ -18851,7 +18806,7 @@
       <c r="AP329" s="19"/>
       <c r="AQ329" s="19"/>
       <c r="AR329" s="22" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="330" spans="1:44" x14ac:dyDescent="0.25">
@@ -18899,7 +18854,7 @@
       <c r="AP330" s="19"/>
       <c r="AQ330" s="19"/>
       <c r="AR330" s="22" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="331" spans="1:44" x14ac:dyDescent="0.25">
@@ -18947,7 +18902,7 @@
       <c r="AP331" s="19"/>
       <c r="AQ331" s="19"/>
       <c r="AR331" s="22" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" spans="1:44" x14ac:dyDescent="0.25">
@@ -18995,7 +18950,7 @@
       <c r="AP332" s="19"/>
       <c r="AQ332" s="19"/>
       <c r="AR332" s="22" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="333" spans="1:44" x14ac:dyDescent="0.25">
@@ -19043,7 +18998,7 @@
       <c r="AP333" s="19"/>
       <c r="AQ333" s="19"/>
       <c r="AR333" s="22" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="334" spans="1:44" x14ac:dyDescent="0.25">
@@ -19091,7 +19046,7 @@
       <c r="AP334" s="19"/>
       <c r="AQ334" s="19"/>
       <c r="AR334" s="22" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="335" spans="1:44" x14ac:dyDescent="0.25">
@@ -19139,7 +19094,7 @@
       <c r="AP335" s="19"/>
       <c r="AQ335" s="19"/>
       <c r="AR335" s="22" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="336" spans="1:44" x14ac:dyDescent="0.25">
@@ -19187,7 +19142,7 @@
       <c r="AP336" s="19"/>
       <c r="AQ336" s="19"/>
       <c r="AR336" s="22" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="337" spans="1:44" x14ac:dyDescent="0.25">
@@ -19235,7 +19190,7 @@
       <c r="AP337" s="19"/>
       <c r="AQ337" s="19"/>
       <c r="AR337" s="22" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="338" spans="1:44" x14ac:dyDescent="0.25">
@@ -19283,7 +19238,7 @@
       <c r="AP338" s="19"/>
       <c r="AQ338" s="19"/>
       <c r="AR338" s="22" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="339" spans="1:44" x14ac:dyDescent="0.25">
@@ -19331,7 +19286,7 @@
       <c r="AP339" s="19"/>
       <c r="AQ339" s="19"/>
       <c r="AR339" s="22" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="340" spans="1:44" x14ac:dyDescent="0.25">
@@ -19379,7 +19334,7 @@
       <c r="AP340" s="19"/>
       <c r="AQ340" s="19"/>
       <c r="AR340" s="22" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="341" spans="1:44" x14ac:dyDescent="0.25">
@@ -19427,7 +19382,7 @@
       <c r="AP341" s="19"/>
       <c r="AQ341" s="19"/>
       <c r="AR341" s="22" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="342" spans="1:44" x14ac:dyDescent="0.25">
@@ -19475,7 +19430,7 @@
       <c r="AP342" s="19"/>
       <c r="AQ342" s="19"/>
       <c r="AR342" s="22" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="343" spans="1:44" x14ac:dyDescent="0.25">
@@ -19523,7 +19478,7 @@
       <c r="AP343" s="19"/>
       <c r="AQ343" s="19"/>
       <c r="AR343" s="22" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="344" spans="1:44" x14ac:dyDescent="0.25">
@@ -19571,7 +19526,7 @@
       <c r="AP344" s="19"/>
       <c r="AQ344" s="19"/>
       <c r="AR344" s="22" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="345" spans="1:44" x14ac:dyDescent="0.25">
@@ -19619,7 +19574,7 @@
       <c r="AP345" s="19"/>
       <c r="AQ345" s="19"/>
       <c r="AR345" s="22" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" spans="1:44" x14ac:dyDescent="0.25">
@@ -19667,7 +19622,7 @@
       <c r="AP346" s="19"/>
       <c r="AQ346" s="19"/>
       <c r="AR346" s="22" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="347" spans="1:44" x14ac:dyDescent="0.25">
@@ -19715,7 +19670,7 @@
       <c r="AP347" s="19"/>
       <c r="AQ347" s="19"/>
       <c r="AR347" s="22" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="348" spans="1:44" x14ac:dyDescent="0.25">
@@ -19763,7 +19718,7 @@
       <c r="AP348" s="19"/>
       <c r="AQ348" s="19"/>
       <c r="AR348" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="349" spans="1:44" x14ac:dyDescent="0.25">
@@ -19811,7 +19766,7 @@
       <c r="AP349" s="19"/>
       <c r="AQ349" s="19"/>
       <c r="AR349" s="22" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="350" spans="1:44" x14ac:dyDescent="0.25">
@@ -19859,7 +19814,7 @@
       <c r="AP350" s="19"/>
       <c r="AQ350" s="19"/>
       <c r="AR350" s="22" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="351" spans="1:44" x14ac:dyDescent="0.25">
@@ -19907,7 +19862,7 @@
       <c r="AP351" s="19"/>
       <c r="AQ351" s="19"/>
       <c r="AR351" s="22" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="352" spans="1:44" x14ac:dyDescent="0.25">
@@ -19955,7 +19910,7 @@
       <c r="AP352" s="19"/>
       <c r="AQ352" s="19"/>
       <c r="AR352" s="22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="353" spans="1:44" x14ac:dyDescent="0.25">
@@ -20003,7 +19958,7 @@
       <c r="AP353" s="19"/>
       <c r="AQ353" s="19"/>
       <c r="AR353" s="22" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="354" spans="1:44" x14ac:dyDescent="0.25">
@@ -20051,7 +20006,7 @@
       <c r="AP354" s="19"/>
       <c r="AQ354" s="19"/>
       <c r="AR354" s="22" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="355" spans="1:44" x14ac:dyDescent="0.25">
@@ -20099,7 +20054,7 @@
       <c r="AP355" s="19"/>
       <c r="AQ355" s="19"/>
       <c r="AR355" s="22" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="356" spans="1:44" x14ac:dyDescent="0.25">
@@ -20147,7 +20102,7 @@
       <c r="AP356" s="19"/>
       <c r="AQ356" s="19"/>
       <c r="AR356" s="22" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="357" spans="1:44" x14ac:dyDescent="0.25">
@@ -20195,7 +20150,7 @@
       <c r="AP357" s="19"/>
       <c r="AQ357" s="19"/>
       <c r="AR357" s="22" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="358" spans="1:44" x14ac:dyDescent="0.25">
@@ -20243,7 +20198,7 @@
       <c r="AP358" s="19"/>
       <c r="AQ358" s="19"/>
       <c r="AR358" s="22" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="359" spans="1:44" x14ac:dyDescent="0.25">
@@ -20291,7 +20246,7 @@
       <c r="AP359" s="19"/>
       <c r="AQ359" s="19"/>
       <c r="AR359" s="22" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="360" spans="1:44" x14ac:dyDescent="0.25">
@@ -20339,7 +20294,7 @@
       <c r="AP360" s="19"/>
       <c r="AQ360" s="19"/>
       <c r="AR360" s="22" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="361" spans="1:44" x14ac:dyDescent="0.25">
@@ -20387,7 +20342,7 @@
       <c r="AP361" s="19"/>
       <c r="AQ361" s="19"/>
       <c r="AR361" s="22" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="362" spans="1:44" x14ac:dyDescent="0.25">
@@ -20435,7 +20390,7 @@
       <c r="AP362" s="19"/>
       <c r="AQ362" s="19"/>
       <c r="AR362" s="22" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="363" spans="1:44" x14ac:dyDescent="0.25">
@@ -20483,7 +20438,7 @@
       <c r="AP363" s="19"/>
       <c r="AQ363" s="19"/>
       <c r="AR363" s="22" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="364" spans="1:44" x14ac:dyDescent="0.25">
@@ -20531,7 +20486,7 @@
       <c r="AP364" s="19"/>
       <c r="AQ364" s="19"/>
       <c r="AR364" s="22" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="365" spans="1:44" x14ac:dyDescent="0.25">
@@ -20579,7 +20534,7 @@
       <c r="AP365" s="19"/>
       <c r="AQ365" s="19"/>
       <c r="AR365" s="22" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="366" spans="1:44" x14ac:dyDescent="0.25">
@@ -20627,7 +20582,7 @@
       <c r="AP366" s="19"/>
       <c r="AQ366" s="19"/>
       <c r="AR366" s="22" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="367" spans="1:44" x14ac:dyDescent="0.25">
@@ -20675,7 +20630,7 @@
       <c r="AP367" s="19"/>
       <c r="AQ367" s="19"/>
       <c r="AR367" s="22" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="368" spans="1:44" x14ac:dyDescent="0.25">
@@ -20723,7 +20678,7 @@
       <c r="AP368" s="19"/>
       <c r="AQ368" s="19"/>
       <c r="AR368" s="22" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="369" spans="1:44" x14ac:dyDescent="0.25">
@@ -20771,7 +20726,7 @@
       <c r="AP369" s="19"/>
       <c r="AQ369" s="19"/>
       <c r="AR369" s="22" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="370" spans="1:44" x14ac:dyDescent="0.25">
@@ -20819,7 +20774,7 @@
       <c r="AP370" s="19"/>
       <c r="AQ370" s="19"/>
       <c r="AR370" s="22" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="371" spans="1:44" x14ac:dyDescent="0.25">
@@ -20867,7 +20822,7 @@
       <c r="AP371" s="19"/>
       <c r="AQ371" s="19"/>
       <c r="AR371" s="22" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="372" spans="1:44" x14ac:dyDescent="0.25">
@@ -20915,7 +20870,7 @@
       <c r="AP372" s="19"/>
       <c r="AQ372" s="19"/>
       <c r="AR372" s="22" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="373" spans="1:44" x14ac:dyDescent="0.25">
@@ -20963,7 +20918,7 @@
       <c r="AP373" s="19"/>
       <c r="AQ373" s="19"/>
       <c r="AR373" s="22" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="374" spans="1:44" x14ac:dyDescent="0.25">
@@ -21011,7 +20966,7 @@
       <c r="AP374" s="19"/>
       <c r="AQ374" s="19"/>
       <c r="AR374" s="22" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="375" spans="1:44" x14ac:dyDescent="0.25">
@@ -21059,7 +21014,7 @@
       <c r="AP375" s="19"/>
       <c r="AQ375" s="19"/>
       <c r="AR375" s="22" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="376" spans="1:44" x14ac:dyDescent="0.25">
@@ -21107,7 +21062,7 @@
       <c r="AP376" s="19"/>
       <c r="AQ376" s="19"/>
       <c r="AR376" s="22" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="377" spans="1:44" x14ac:dyDescent="0.25">
@@ -21155,7 +21110,7 @@
       <c r="AP377" s="19"/>
       <c r="AQ377" s="19"/>
       <c r="AR377" s="22" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="378" spans="1:44" x14ac:dyDescent="0.25">
@@ -21203,7 +21158,7 @@
       <c r="AP378" s="19"/>
       <c r="AQ378" s="19"/>
       <c r="AR378" s="22" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="379" spans="1:44" x14ac:dyDescent="0.25">
@@ -21251,7 +21206,7 @@
       <c r="AP379" s="19"/>
       <c r="AQ379" s="19"/>
       <c r="AR379" s="22" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="380" spans="1:44" x14ac:dyDescent="0.25">
@@ -21299,7 +21254,7 @@
       <c r="AP380" s="19"/>
       <c r="AQ380" s="19"/>
       <c r="AR380" s="22" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="381" spans="1:44" x14ac:dyDescent="0.25">
@@ -21347,7 +21302,7 @@
       <c r="AP381" s="19"/>
       <c r="AQ381" s="19"/>
       <c r="AR381" s="22" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="382" spans="1:44" x14ac:dyDescent="0.25">
@@ -21395,7 +21350,7 @@
       <c r="AP382" s="19"/>
       <c r="AQ382" s="19"/>
       <c r="AR382" s="22" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="383" spans="1:44" x14ac:dyDescent="0.25">
@@ -21443,7 +21398,7 @@
       <c r="AP383" s="19"/>
       <c r="AQ383" s="19"/>
       <c r="AR383" s="22" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="384" spans="1:44" x14ac:dyDescent="0.25">
@@ -21491,7 +21446,7 @@
       <c r="AP384" s="19"/>
       <c r="AQ384" s="19"/>
       <c r="AR384" s="22" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="385" spans="1:44" x14ac:dyDescent="0.25">
@@ -21539,7 +21494,7 @@
       <c r="AP385" s="19"/>
       <c r="AQ385" s="19"/>
       <c r="AR385" s="22" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="386" spans="1:44" x14ac:dyDescent="0.25">
@@ -21587,7 +21542,7 @@
       <c r="AP386" s="19"/>
       <c r="AQ386" s="19"/>
       <c r="AR386" s="22" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="387" spans="1:44" x14ac:dyDescent="0.25">
@@ -21635,7 +21590,7 @@
       <c r="AP387" s="19"/>
       <c r="AQ387" s="19"/>
       <c r="AR387" s="22" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="388" spans="1:44" x14ac:dyDescent="0.25">
@@ -21683,7 +21638,7 @@
       <c r="AP388" s="19"/>
       <c r="AQ388" s="19"/>
       <c r="AR388" s="22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="389" spans="1:44" x14ac:dyDescent="0.25">
@@ -21731,7 +21686,7 @@
       <c r="AP389" s="19"/>
       <c r="AQ389" s="19"/>
       <c r="AR389" s="22" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="390" spans="1:44" x14ac:dyDescent="0.25">
@@ -21779,7 +21734,7 @@
       <c r="AP390" s="19"/>
       <c r="AQ390" s="19"/>
       <c r="AR390" s="22" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="391" spans="1:44" x14ac:dyDescent="0.25">
@@ -21827,7 +21782,7 @@
       <c r="AP391" s="19"/>
       <c r="AQ391" s="19"/>
       <c r="AR391" s="22" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="392" spans="1:44" x14ac:dyDescent="0.25">
@@ -21875,7 +21830,7 @@
       <c r="AP392" s="19"/>
       <c r="AQ392" s="19"/>
       <c r="AR392" s="22" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="393" spans="1:44" x14ac:dyDescent="0.25">
@@ -21923,7 +21878,7 @@
       <c r="AP393" s="19"/>
       <c r="AQ393" s="19"/>
       <c r="AR393" s="22" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="394" spans="1:44" x14ac:dyDescent="0.25">
@@ -21971,7 +21926,7 @@
       <c r="AP394" s="19"/>
       <c r="AQ394" s="19"/>
       <c r="AR394" s="22" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="395" spans="1:44" x14ac:dyDescent="0.25">
@@ -22019,7 +21974,7 @@
       <c r="AP395" s="19"/>
       <c r="AQ395" s="19"/>
       <c r="AR395" s="22" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="396" spans="1:44" x14ac:dyDescent="0.25">
@@ -22067,7 +22022,7 @@
       <c r="AP396" s="19"/>
       <c r="AQ396" s="19"/>
       <c r="AR396" s="22" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="397" spans="1:44" x14ac:dyDescent="0.25">
@@ -22115,7 +22070,7 @@
       <c r="AP397" s="19"/>
       <c r="AQ397" s="19"/>
       <c r="AR397" s="22" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="398" spans="1:44" x14ac:dyDescent="0.25">
@@ -22163,7 +22118,7 @@
       <c r="AP398" s="19"/>
       <c r="AQ398" s="19"/>
       <c r="AR398" s="22" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="399" spans="1:44" x14ac:dyDescent="0.25">
@@ -22211,7 +22166,7 @@
       <c r="AP399" s="19"/>
       <c r="AQ399" s="19"/>
       <c r="AR399" s="22" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="400" spans="1:44" x14ac:dyDescent="0.25">
@@ -22259,7 +22214,7 @@
       <c r="AP400" s="19"/>
       <c r="AQ400" s="19"/>
       <c r="AR400" s="22" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="401" spans="1:44" x14ac:dyDescent="0.25">
@@ -22307,7 +22262,7 @@
       <c r="AP401" s="19"/>
       <c r="AQ401" s="19"/>
       <c r="AR401" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="402" spans="1:44" x14ac:dyDescent="0.25">
@@ -22355,7 +22310,7 @@
       <c r="AP402" s="19"/>
       <c r="AQ402" s="19"/>
       <c r="AR402" s="22" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="403" spans="1:44" x14ac:dyDescent="0.25">
@@ -22403,7 +22358,7 @@
       <c r="AP403" s="19"/>
       <c r="AQ403" s="19"/>
       <c r="AR403" s="22" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="404" spans="1:44" x14ac:dyDescent="0.25">
@@ -22451,7 +22406,7 @@
       <c r="AP404" s="19"/>
       <c r="AQ404" s="19"/>
       <c r="AR404" s="22" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="405" spans="1:44" x14ac:dyDescent="0.25">
@@ -22499,7 +22454,7 @@
       <c r="AP405" s="19"/>
       <c r="AQ405" s="19"/>
       <c r="AR405" s="22" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="406" spans="1:44" x14ac:dyDescent="0.25">
@@ -22547,7 +22502,7 @@
       <c r="AP406" s="19"/>
       <c r="AQ406" s="19"/>
       <c r="AR406" s="22" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="407" spans="1:44" x14ac:dyDescent="0.25">
@@ -22595,7 +22550,7 @@
       <c r="AP407" s="19"/>
       <c r="AQ407" s="19"/>
       <c r="AR407" s="22" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="408" spans="1:44" x14ac:dyDescent="0.25">
@@ -22643,7 +22598,7 @@
       <c r="AP408" s="19"/>
       <c r="AQ408" s="19"/>
       <c r="AR408" s="22" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="409" spans="1:44" x14ac:dyDescent="0.25">
@@ -22691,7 +22646,7 @@
       <c r="AP409" s="19"/>
       <c r="AQ409" s="19"/>
       <c r="AR409" s="22" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="410" spans="1:44" x14ac:dyDescent="0.25">
@@ -22739,7 +22694,7 @@
       <c r="AP410" s="19"/>
       <c r="AQ410" s="19"/>
       <c r="AR410" s="22" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="411" spans="1:44" x14ac:dyDescent="0.25">
@@ -22787,7 +22742,7 @@
       <c r="AP411" s="19"/>
       <c r="AQ411" s="19"/>
       <c r="AR411" s="22" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="412" spans="1:44" x14ac:dyDescent="0.25">
@@ -22835,7 +22790,7 @@
       <c r="AP412" s="19"/>
       <c r="AQ412" s="19"/>
       <c r="AR412" s="22" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="413" spans="1:44" x14ac:dyDescent="0.25">
@@ -22883,7 +22838,7 @@
       <c r="AP413" s="19"/>
       <c r="AQ413" s="19"/>
       <c r="AR413" s="22" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="414" spans="1:44" x14ac:dyDescent="0.25">
@@ -22931,7 +22886,7 @@
       <c r="AP414" s="19"/>
       <c r="AQ414" s="19"/>
       <c r="AR414" s="22" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="415" spans="1:44" x14ac:dyDescent="0.25">
@@ -22979,7 +22934,7 @@
       <c r="AP415" s="19"/>
       <c r="AQ415" s="19"/>
       <c r="AR415" s="22" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="416" spans="1:44" x14ac:dyDescent="0.25">
@@ -23027,7 +22982,7 @@
       <c r="AP416" s="19"/>
       <c r="AQ416" s="19"/>
       <c r="AR416" s="22" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="417" spans="1:44" x14ac:dyDescent="0.25">
@@ -23075,7 +23030,7 @@
       <c r="AP417" s="19"/>
       <c r="AQ417" s="19"/>
       <c r="AR417" s="22" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="418" spans="1:44" x14ac:dyDescent="0.25">
@@ -23123,7 +23078,7 @@
       <c r="AP418" s="19"/>
       <c r="AQ418" s="19"/>
       <c r="AR418" s="22" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="419" spans="1:44" x14ac:dyDescent="0.25">
@@ -23171,7 +23126,7 @@
       <c r="AP419" s="19"/>
       <c r="AQ419" s="19"/>
       <c r="AR419" s="22" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="420" spans="1:44" x14ac:dyDescent="0.25">
@@ -23219,7 +23174,7 @@
       <c r="AP420" s="19"/>
       <c r="AQ420" s="19"/>
       <c r="AR420" s="22" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="421" spans="1:44" x14ac:dyDescent="0.25">
@@ -23267,7 +23222,7 @@
       <c r="AP421" s="19"/>
       <c r="AQ421" s="19"/>
       <c r="AR421" s="22" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="422" spans="1:44" x14ac:dyDescent="0.25">
@@ -23315,7 +23270,7 @@
       <c r="AP422" s="19"/>
       <c r="AQ422" s="19"/>
       <c r="AR422" s="22" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="423" spans="1:44" x14ac:dyDescent="0.25">
@@ -23363,7 +23318,7 @@
       <c r="AP423" s="19"/>
       <c r="AQ423" s="19"/>
       <c r="AR423" s="22" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="424" spans="1:44" x14ac:dyDescent="0.25">
@@ -23411,7 +23366,7 @@
       <c r="AP424" s="19"/>
       <c r="AQ424" s="19"/>
       <c r="AR424" s="22" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="425" spans="1:44" x14ac:dyDescent="0.25">
@@ -23459,7 +23414,7 @@
       <c r="AP425" s="19"/>
       <c r="AQ425" s="19"/>
       <c r="AR425" s="22" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="426" spans="1:44" x14ac:dyDescent="0.25">
@@ -23507,7 +23462,7 @@
       <c r="AP426" s="19"/>
       <c r="AQ426" s="19"/>
       <c r="AR426" s="22" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="427" spans="1:44" x14ac:dyDescent="0.25">
@@ -23555,7 +23510,7 @@
       <c r="AP427" s="19"/>
       <c r="AQ427" s="19"/>
       <c r="AR427" s="22" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="428" spans="1:44" x14ac:dyDescent="0.25">
@@ -23603,7 +23558,7 @@
       <c r="AP428" s="19"/>
       <c r="AQ428" s="19"/>
       <c r="AR428" s="22" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="429" spans="1:44" x14ac:dyDescent="0.25">
@@ -23651,7 +23606,7 @@
       <c r="AP429" s="19"/>
       <c r="AQ429" s="19"/>
       <c r="AR429" s="22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="430" spans="1:44" x14ac:dyDescent="0.25">
@@ -23699,7 +23654,7 @@
       <c r="AP430" s="19"/>
       <c r="AQ430" s="19"/>
       <c r="AR430" s="22" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="431" spans="1:44" x14ac:dyDescent="0.25">
@@ -23747,7 +23702,7 @@
       <c r="AP431" s="19"/>
       <c r="AQ431" s="19"/>
       <c r="AR431" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="432" spans="1:44" x14ac:dyDescent="0.25">
@@ -23795,7 +23750,7 @@
       <c r="AP432" s="19"/>
       <c r="AQ432" s="19"/>
       <c r="AR432" s="22" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="433" spans="1:44" x14ac:dyDescent="0.25">
@@ -23843,7 +23798,7 @@
       <c r="AP433" s="19"/>
       <c r="AQ433" s="19"/>
       <c r="AR433" s="22" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="434" spans="1:44" x14ac:dyDescent="0.25">
@@ -23891,7 +23846,7 @@
       <c r="AP434" s="19"/>
       <c r="AQ434" s="19"/>
       <c r="AR434" s="22" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="435" spans="1:44" x14ac:dyDescent="0.25">
@@ -23939,7 +23894,7 @@
       <c r="AP435" s="19"/>
       <c r="AQ435" s="19"/>
       <c r="AR435" s="22" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="436" spans="1:44" x14ac:dyDescent="0.25">
@@ -23987,7 +23942,7 @@
       <c r="AP436" s="19"/>
       <c r="AQ436" s="19"/>
       <c r="AR436" s="22" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="437" spans="1:44" x14ac:dyDescent="0.25">
@@ -24035,7 +23990,7 @@
       <c r="AP437" s="19"/>
       <c r="AQ437" s="19"/>
       <c r="AR437" s="22" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="438" spans="1:44" x14ac:dyDescent="0.25">
@@ -24083,7 +24038,7 @@
       <c r="AP438" s="19"/>
       <c r="AQ438" s="19"/>
       <c r="AR438" s="22" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="439" spans="1:44" x14ac:dyDescent="0.25">
@@ -24131,7 +24086,7 @@
       <c r="AP439" s="19"/>
       <c r="AQ439" s="19"/>
       <c r="AR439" s="22" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="440" spans="1:44" x14ac:dyDescent="0.25">
@@ -24179,7 +24134,7 @@
       <c r="AP440" s="19"/>
       <c r="AQ440" s="19"/>
       <c r="AR440" s="22" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="441" spans="1:44" x14ac:dyDescent="0.25">
@@ -24227,7 +24182,7 @@
       <c r="AP441" s="19"/>
       <c r="AQ441" s="19"/>
       <c r="AR441" s="22" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="442" spans="1:44" x14ac:dyDescent="0.25">
@@ -24275,7 +24230,7 @@
       <c r="AP442" s="19"/>
       <c r="AQ442" s="19"/>
       <c r="AR442" s="22" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="443" spans="1:44" x14ac:dyDescent="0.25">
@@ -24323,7 +24278,7 @@
       <c r="AP443" s="19"/>
       <c r="AQ443" s="19"/>
       <c r="AR443" s="22" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="444" spans="1:44" x14ac:dyDescent="0.25">
@@ -24371,7 +24326,7 @@
       <c r="AP444" s="19"/>
       <c r="AQ444" s="19"/>
       <c r="AR444" s="22" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="445" spans="1:44" x14ac:dyDescent="0.25">
@@ -24419,7 +24374,7 @@
       <c r="AP445" s="19"/>
       <c r="AQ445" s="19"/>
       <c r="AR445" s="22" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="446" spans="1:44" x14ac:dyDescent="0.25">
@@ -24467,7 +24422,7 @@
       <c r="AP446" s="19"/>
       <c r="AQ446" s="19"/>
       <c r="AR446" s="22" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="447" spans="1:44" x14ac:dyDescent="0.25">
@@ -24515,7 +24470,7 @@
       <c r="AP447" s="19"/>
       <c r="AQ447" s="19"/>
       <c r="AR447" s="22" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="448" spans="1:44" x14ac:dyDescent="0.25">
@@ -24563,7 +24518,7 @@
       <c r="AP448" s="19"/>
       <c r="AQ448" s="19"/>
       <c r="AR448" s="22" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="449" spans="1:44" x14ac:dyDescent="0.25">
@@ -24611,7 +24566,7 @@
       <c r="AP449" s="19"/>
       <c r="AQ449" s="19"/>
       <c r="AR449" s="22" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="450" spans="1:44" x14ac:dyDescent="0.25">
@@ -24659,7 +24614,7 @@
       <c r="AP450" s="19"/>
       <c r="AQ450" s="19"/>
       <c r="AR450" s="22" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="451" spans="1:44" x14ac:dyDescent="0.25">
@@ -24707,7 +24662,7 @@
       <c r="AP451" s="19"/>
       <c r="AQ451" s="19"/>
       <c r="AR451" s="22" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="452" spans="1:44" x14ac:dyDescent="0.25">
@@ -24755,7 +24710,7 @@
       <c r="AP452" s="19"/>
       <c r="AQ452" s="19"/>
       <c r="AR452" s="22" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="453" spans="1:44" x14ac:dyDescent="0.25">
@@ -24803,7 +24758,7 @@
       <c r="AP453" s="19"/>
       <c r="AQ453" s="19"/>
       <c r="AR453" s="22" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="454" spans="1:44" x14ac:dyDescent="0.25">
@@ -24851,7 +24806,7 @@
       <c r="AP454" s="19"/>
       <c r="AQ454" s="19"/>
       <c r="AR454" s="22" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="455" spans="1:44" x14ac:dyDescent="0.25">
@@ -24899,7 +24854,7 @@
       <c r="AP455" s="19"/>
       <c r="AQ455" s="19"/>
       <c r="AR455" s="22" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="456" spans="1:44" x14ac:dyDescent="0.25">
@@ -24947,7 +24902,7 @@
       <c r="AP456" s="19"/>
       <c r="AQ456" s="19"/>
       <c r="AR456" s="22" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="457" spans="1:44" x14ac:dyDescent="0.25">
@@ -24995,7 +24950,7 @@
       <c r="AP457" s="19"/>
       <c r="AQ457" s="19"/>
       <c r="AR457" s="22" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="458" spans="1:44" x14ac:dyDescent="0.25">
@@ -25043,7 +24998,7 @@
       <c r="AP458" s="19"/>
       <c r="AQ458" s="19"/>
       <c r="AR458" s="22" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="459" spans="1:44" x14ac:dyDescent="0.25">
@@ -25091,7 +25046,7 @@
       <c r="AP459" s="19"/>
       <c r="AQ459" s="19"/>
       <c r="AR459" s="22" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="460" spans="1:44" x14ac:dyDescent="0.25">
@@ -25139,7 +25094,7 @@
       <c r="AP460" s="19"/>
       <c r="AQ460" s="19"/>
       <c r="AR460" s="22" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="461" spans="1:44" x14ac:dyDescent="0.25">
@@ -25187,7 +25142,7 @@
       <c r="AP461" s="19"/>
       <c r="AQ461" s="19"/>
       <c r="AR461" s="22" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="462" spans="1:44" x14ac:dyDescent="0.25">
@@ -25235,7 +25190,7 @@
       <c r="AP462" s="19"/>
       <c r="AQ462" s="19"/>
       <c r="AR462" s="22" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="463" spans="1:44" x14ac:dyDescent="0.25">
@@ -25283,7 +25238,7 @@
       <c r="AP463" s="19"/>
       <c r="AQ463" s="19"/>
       <c r="AR463" s="22" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="464" spans="1:44" x14ac:dyDescent="0.25">
@@ -25331,7 +25286,7 @@
       <c r="AP464" s="19"/>
       <c r="AQ464" s="19"/>
       <c r="AR464" s="22" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="465" spans="1:44" x14ac:dyDescent="0.25">
@@ -25379,7 +25334,7 @@
       <c r="AP465" s="19"/>
       <c r="AQ465" s="19"/>
       <c r="AR465" s="22" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -25393,8 +25348,11 @@
     <hyperlink ref="AA5" r:id="rId3"/>
     <hyperlink ref="AA6" r:id="rId4"/>
     <hyperlink ref="AA7" r:id="rId5"/>
+    <hyperlink ref="AA2" r:id="rId6"/>
+    <hyperlink ref="AA8" r:id="rId7"/>
+    <hyperlink ref="AA9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>